--- a/lit_data/litterature NH3 field app digestate.xlsx
+++ b/lit_data/litterature NH3 field app digestate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Dokumenter/GitHub/Pedersen-2022-app-digestate-NH3-review/lit_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="13_ncr:1_{C1797D30-0D28-4E65-8294-8CCA02D88F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F25F74-5B86-4F3F-929A-1ACC85DCE9E1}"/>
+  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{C1797D30-0D28-4E65-8294-8CCA02D88F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A162D086-85BB-4CA0-930F-3D6C72458E2E}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3255" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{90B750BC-7ABB-4C51-B01A-3142C31660F6}"/>
+    <workbookView xWindow="-28905" yWindow="-1590" windowWidth="28800" windowHeight="19875" xr2:uid="{90B750BC-7ABB-4C51-B01A-3142C31660F6}"/>
   </bookViews>
   <sheets>
     <sheet name="front page" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="338">
   <si>
     <t>General information</t>
   </si>
@@ -671,12 +671,6 @@
   </si>
   <si>
     <t>Digested B, NEO</t>
-  </si>
-  <si>
-    <t>Støckler et al. In preparation</t>
-  </si>
-  <si>
-    <t>8.5</t>
   </si>
   <si>
     <t>Pedersen et al., in preparation A</t>
@@ -1081,30 +1075,6 @@
   </si>
   <si>
     <r>
-      <t>anaerobic, reactor 1 for 14 d at 51</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C and reactor two for 40 d at 47°C </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>HRT = 40 d, 42</t>
     </r>
     <r>
@@ -1150,9 +1120,6 @@
   </si>
   <si>
     <t>manuscript draft from Y. Perschke 24 Mar 2022 to jp@bce.au.dk and shared raw data from Y. Perschke 08 Jul 2022 to jp@bce.au.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data sent from A. Støckler to J. Pedersen by email the 26th of Aug 2022. </t>
   </si>
   <si>
     <t>Figure 4 and email message from A. Pacholski 25 Nov 2021 to jp@bce.au.dk</t>
@@ -1406,7 +1373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,12 +1417,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1489,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1559,8 +1520,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1579,7 +1538,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1900,18 +1859,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFC44C0-728E-4579-9586-93B899D38729}">
   <dimension ref="A2:AB61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -1973,13 +1932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742FF6C-C430-4FEB-AF80-80FE7E2AA56C}">
-  <dimension ref="A1:AR132"/>
+  <dimension ref="A1:AR128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="22" ySplit="2" topLeftCell="W43" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="22" ySplit="2" topLeftCell="AO31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S130" sqref="S130"/>
+      <selection pane="bottomRight" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,63 +1970,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="41" t="s">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="39" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="41" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
       <c r="AE1" s="16"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
       <c r="AR1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2128,13 +2087,13 @@
         <v>194</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>183</v>
@@ -2164,19 +2123,19 @@
         <v>13</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>15</v>
@@ -2194,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>20</v>
@@ -2208,133 +2167,133 @@
     </row>
     <row r="3" spans="1:44" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="I3" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="K3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="O3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="R3" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="X3" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="Y3" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="Z3" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="AA3" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AB3" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AF3" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="AG3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AM3" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="AR3" s="4" t="s">
         <v>22</v>
@@ -2356,7 +2315,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>47</v>
@@ -2368,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11" t="s">
@@ -2376,12 +2335,12 @@
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>58</v>
@@ -2434,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>30</v>
@@ -2455,7 +2414,7 @@
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>47</v>
@@ -2467,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
@@ -2475,12 +2434,12 @@
       </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W5" s="14" t="s">
         <v>58</v>
@@ -2536,7 +2495,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>29</v>
@@ -2548,21 +2507,21 @@
         <v>1</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="X6" s="33" t="s">
         <v>45</v>
       </c>
       <c r="Y6" s="17">
@@ -2608,10 +2567,10 @@
         <v>28.7</v>
       </c>
       <c r="AP6" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ6" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AR6" s="17" t="s">
         <v>33</v>
@@ -2622,7 +2581,7 @@
         <v>170</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>30</v>
@@ -2643,7 +2602,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>29</v>
@@ -2655,21 +2614,21 @@
         <v>1</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="X7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="Y7" s="17">
@@ -2715,10 +2674,10 @@
         <v>32.4</v>
       </c>
       <c r="AP7" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ7" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AR7" s="17" t="s">
         <v>33</v>
@@ -2729,7 +2688,7 @@
         <v>170</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>30</v>
@@ -2750,10 +2709,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="17" t="s">
         <v>23</v>
@@ -2762,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>35</v>
@@ -2771,12 +2730,12 @@
         <v>1</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="33" t="s">
         <v>45</v>
       </c>
       <c r="Y8" s="17">
@@ -2822,10 +2781,10 @@
         <v>17</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ8" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2833,7 +2792,7 @@
         <v>170</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>30</v>
@@ -2854,10 +2813,10 @@
         <v>32</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>195</v>
@@ -2869,15 +2828,15 @@
         <v>1</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="X9" s="33" t="s">
         <v>45</v>
       </c>
       <c r="Y9" s="17">
@@ -2919,14 +2878,14 @@
       <c r="AM9" s="17">
         <v>1.05</v>
       </c>
-      <c r="AO9" s="36">
+      <c r="AO9" s="34">
         <v>2.5</v>
       </c>
       <c r="AP9" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ9" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2934,7 +2893,7 @@
         <v>170</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>30</v>
@@ -2955,16 +2914,16 @@
         <v>32</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q10" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q10" s="35" t="s">
         <v>54</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T10" s="17" t="s">
         <v>108</v>
@@ -2973,12 +2932,12 @@
         <v>1</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="X10" s="33" t="s">
         <v>45</v>
       </c>
       <c r="Y10" s="17">
@@ -3020,14 +2979,14 @@
       <c r="AM10" s="17">
         <v>1.05</v>
       </c>
-      <c r="AO10" s="36">
+      <c r="AO10" s="34">
         <v>15.5</v>
       </c>
       <c r="AP10" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AQ10" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -3038,7 +2997,7 @@
         <v>31</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>70</v>
@@ -3050,16 +3009,16 @@
         <v>1</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W11" s="14" t="s">
         <v>58</v>
@@ -3111,7 +3070,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>31</v>
@@ -3129,7 +3088,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>70</v>
@@ -3141,16 +3100,16 @@
         <v>1</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>58</v>
@@ -3205,7 +3164,7 @@
         <v>31</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>70</v>
@@ -3217,16 +3176,16 @@
         <v>2</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>58</v>
@@ -3278,7 +3237,7 @@
         <v>69</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>31</v>
@@ -3296,7 +3255,7 @@
         <v>71</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>70</v>
@@ -3308,16 +3267,16 @@
         <v>2</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>54</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>58</v>
@@ -3372,7 +3331,7 @@
         <v>31</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>70</v>
@@ -3384,16 +3343,16 @@
         <v>3</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>54</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W15" s="14" t="s">
         <v>58</v>
@@ -3445,7 +3404,7 @@
         <v>69</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>31</v>
@@ -3463,7 +3422,7 @@
         <v>71</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>70</v>
@@ -3475,16 +3434,16 @@
         <v>3</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>58</v>
@@ -3539,7 +3498,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>70</v>
@@ -3551,16 +3510,16 @@
         <v>1</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W17" s="14" t="s">
         <v>58</v>
@@ -3619,7 +3578,7 @@
         <v>79</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>31</v>
@@ -3637,7 +3596,7 @@
         <v>80</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>70</v>
@@ -3649,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>23</v>
@@ -3658,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W18" s="14" t="s">
         <v>58</v>
@@ -3720,7 +3679,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>31</v>
@@ -3738,10 +3697,10 @@
         <v>80</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>146</v>
@@ -3753,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W19" s="14" t="s">
         <v>58</v>
@@ -3818,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>70</v>
@@ -3830,16 +3789,16 @@
         <v>2</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W20" s="14" t="s">
         <v>58</v>
@@ -3898,7 +3857,7 @@
         <v>79</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>31</v>
@@ -3916,7 +3875,7 @@
         <v>80</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>70</v>
@@ -3928,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="14" t="s">
         <v>23</v>
@@ -3937,10 +3896,10 @@
         <v>2</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W21" s="14" t="s">
         <v>58</v>
@@ -3994,7 +3953,7 @@
         <v>85</v>
       </c>
       <c r="AR21" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4002,7 +3961,7 @@
         <v>79</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>31</v>
@@ -4020,10 +3979,10 @@
         <v>80</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>146</v>
@@ -4035,10 +3994,10 @@
         <v>2</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W22" s="14" t="s">
         <v>58</v>
@@ -4100,7 +4059,7 @@
         <v>31</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>70</v>
@@ -4112,16 +4071,16 @@
         <v>3</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W23" s="14" t="s">
         <v>58</v>
@@ -4175,7 +4134,7 @@
         <v>86</v>
       </c>
       <c r="AR23" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4183,7 +4142,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>31</v>
@@ -4201,7 +4160,7 @@
         <v>80</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>70</v>
@@ -4213,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="14" t="s">
         <v>23</v>
@@ -4222,10 +4181,10 @@
         <v>3</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W24" s="14" t="s">
         <v>58</v>
@@ -4284,7 +4243,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>31</v>
@@ -4302,10 +4261,10 @@
         <v>80</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>146</v>
@@ -4317,10 +4276,10 @@
         <v>3</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W25" s="14" t="s">
         <v>58</v>
@@ -4374,7 +4333,7 @@
         <v>187</v>
       </c>
       <c r="AR25" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4385,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>29</v>
@@ -4397,16 +4356,16 @@
         <v>1</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W26" s="14" t="s">
         <v>58</v>
@@ -4458,7 +4417,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>30</v>
@@ -4470,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>29</v>
@@ -4485,16 +4444,16 @@
         <v>1</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q27" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V27" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W27" s="14" t="s">
         <v>58</v>
@@ -4546,7 +4505,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>30</v>
@@ -4558,10 +4517,10 @@
         <v>107</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>29</v>
@@ -4573,16 +4532,16 @@
         <v>1</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V28" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W28" s="14" t="s">
         <v>58</v>
@@ -4634,7 +4593,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>30</v>
@@ -4646,10 +4605,10 @@
         <v>107</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>29</v>
@@ -4661,16 +4620,16 @@
         <v>1</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V29" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W29" s="14" t="s">
         <v>58</v>
@@ -4719,14 +4678,14 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L30" t="s">
         <v>70</v>
@@ -4738,22 +4697,22 @@
         <v>1</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V30" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W30" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AO30">
         <v>28</v>
@@ -4762,15 +4721,15 @@
         <v>98</v>
       </c>
       <c r="AQ30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -4785,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L31" t="s">
         <v>70</v>
@@ -4800,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q31" t="s">
         <v>23</v>
@@ -4809,16 +4768,16 @@
         <v>1</v>
       </c>
       <c r="S31" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V31" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W31" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X31" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z31" s="14" t="s">
         <v>35</v>
@@ -4845,15 +4804,15 @@
         <v>98</v>
       </c>
       <c r="AQ31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -4868,16 +4827,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
         <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P32" t="s">
         <v>146</v>
@@ -4889,16 +4848,16 @@
         <v>1</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V32" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X32" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z32" s="14" t="s">
         <v>35</v>
@@ -4925,18 +4884,18 @@
         <v>98</v>
       </c>
       <c r="AQ32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
         <v>70</v>
@@ -4948,22 +4907,22 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q33" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S33" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V33" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W33" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X33" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z33" s="14" t="s">
         <v>35</v>
@@ -4990,15 +4949,15 @@
         <v>98</v>
       </c>
       <c r="AQ33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -5013,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
         <v>70</v>
@@ -5028,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q34" t="s">
         <v>23</v>
@@ -5037,16 +4996,16 @@
         <v>2</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W34" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X34" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z34" s="14" t="s">
         <v>35</v>
@@ -5073,15 +5032,15 @@
         <v>98</v>
       </c>
       <c r="AQ34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -5096,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J35" t="s">
         <v>146</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s">
         <v>146</v>
@@ -5117,16 +5076,16 @@
         <v>2</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W35" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X35" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z35" s="14" t="s">
         <v>35</v>
@@ -5153,15 +5112,15 @@
         <v>98</v>
       </c>
       <c r="AQ35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>30</v>
@@ -5179,31 +5138,31 @@
         <v>23</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>330</v>
+        <v>266</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W36" s="17" t="s">
         <v>58</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y36" s="17">
         <v>169</v>
@@ -5245,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="AL36" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM36" s="17">
         <v>1.29</v>
@@ -5257,18 +5216,18 @@
         <v>27</v>
       </c>
       <c r="AP36" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ36" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>30</v>
@@ -5286,31 +5245,31 @@
         <v>23</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>330</v>
+        <v>266</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q37" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W37" s="17" t="s">
         <v>58</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y37" s="17">
         <v>169</v>
@@ -5352,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="AL37" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM37" s="17">
         <v>1.29</v>
@@ -5364,18 +5323,18 @@
         <v>51</v>
       </c>
       <c r="AP37" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ37" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>30</v>
@@ -5393,31 +5352,31 @@
         <v>23</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>330</v>
+        <v>266</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>58</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y38" s="17">
         <v>169</v>
@@ -5459,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="AL38" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM38" s="17">
         <v>1.29</v>
@@ -5471,10 +5430,10 @@
         <v>17</v>
       </c>
       <c r="AP38" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ38" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5485,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>70</v>
@@ -5497,16 +5456,16 @@
         <v>1</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q39" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V39" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>51</v>
@@ -5560,7 +5519,7 @@
         <v>23.24</v>
       </c>
       <c r="AP39" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ39" s="14" t="s">
         <v>162</v>
@@ -5571,7 +5530,7 @@
         <v>160</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>31</v>
@@ -5586,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>70</v>
@@ -5601,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q40" s="14" t="s">
         <v>23</v>
@@ -5610,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W40" s="14" t="s">
         <v>51</v>
@@ -5667,7 +5626,7 @@
         <v>25.69</v>
       </c>
       <c r="AP40" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ40" s="14" t="s">
         <v>163</v>
@@ -5681,7 +5640,7 @@
         <v>31</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>132</v>
@@ -5693,16 +5652,16 @@
         <v>2</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S41" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V41" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W41" s="14" t="s">
         <v>51</v>
@@ -5756,7 +5715,7 @@
         <v>19.57</v>
       </c>
       <c r="AP41" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ41" s="14" t="s">
         <v>164</v>
@@ -5767,7 +5726,7 @@
         <v>160</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>31</v>
@@ -5782,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>132</v>
@@ -5797,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P42" s="14" t="s">
         <v>146</v>
@@ -5809,10 +5768,10 @@
         <v>1</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V42" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W42" s="14" t="s">
         <v>51</v>
@@ -5866,7 +5825,7 @@
         <v>23.58</v>
       </c>
       <c r="AP42" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ42" s="14" t="s">
         <v>165</v>
@@ -5880,7 +5839,7 @@
         <v>31</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>132</v>
@@ -5892,16 +5851,16 @@
         <v>3</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q43" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S43" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V43" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W43" s="14" t="s">
         <v>51</v>
@@ -5955,7 +5914,7 @@
         <v>17.55</v>
       </c>
       <c r="AP43" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ43" s="14" t="s">
         <v>166</v>
@@ -5966,7 +5925,7 @@
         <v>160</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>31</v>
@@ -5981,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L44" s="14" t="s">
         <v>132</v>
@@ -5996,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P44" s="14" t="s">
         <v>146</v>
@@ -6008,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="S44" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W44" s="14" t="s">
         <v>51</v>
@@ -6065,7 +6024,7 @@
         <v>19.22</v>
       </c>
       <c r="AP44" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ44" s="14" t="s">
         <v>167</v>
@@ -6079,7 +6038,7 @@
         <v>31</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>132</v>
@@ -6091,16 +6050,16 @@
         <v>4</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q45" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S45" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V45" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W45" s="14" t="s">
         <v>51</v>
@@ -6154,7 +6113,7 @@
         <v>4.32</v>
       </c>
       <c r="AP45" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ45" s="14" t="s">
         <v>168</v>
@@ -6165,7 +6124,7 @@
         <v>160</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>31</v>
@@ -6180,10 +6139,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>132</v>
@@ -6195,7 +6154,7 @@
         <v>4</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P46" s="14" t="s">
         <v>146</v>
@@ -6207,10 +6166,10 @@
         <v>1</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W46" s="14" t="s">
         <v>51</v>
@@ -6264,7 +6223,7 @@
         <v>14.03</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AQ46" s="14" t="s">
         <v>169</v>
@@ -6278,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>29</v>
@@ -6290,16 +6249,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S47" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V47" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W47" s="14" t="s">
         <v>58</v>
@@ -6348,7 +6307,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>30</v>
@@ -6360,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>29</v>
@@ -6375,16 +6334,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q48" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S48" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V48" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W48" s="14" t="s">
         <v>58</v>
@@ -6433,7 +6392,7 @@
         <v>89</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>30</v>
@@ -6445,10 +6404,10 @@
         <v>92</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L49" s="14" t="s">
         <v>29</v>
@@ -6460,16 +6419,16 @@
         <v>1</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q49" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S49" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W49" s="14" t="s">
         <v>58</v>
@@ -6504,7 +6463,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L50" s="14" t="s">
         <v>52</v>
@@ -6516,16 +6475,16 @@
         <v>1</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q50" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S50" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W50" s="14" t="s">
         <v>51</v>
@@ -6576,7 +6535,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>30</v>
@@ -6588,7 +6547,7 @@
         <v>50</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L51" s="14" t="s">
         <v>52</v>
@@ -6600,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q51" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S51" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T51" s="14" t="s">
         <v>56</v>
@@ -6615,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="V51" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W51" s="14" t="s">
         <v>51</v>
@@ -6669,7 +6628,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L52" s="14" t="s">
         <v>52</v>
@@ -6681,16 +6640,16 @@
         <v>2</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q52" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S52" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V52" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W52" s="14" t="s">
         <v>51</v>
@@ -6741,7 +6700,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>30</v>
@@ -6753,7 +6712,7 @@
         <v>50</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L53" s="14" t="s">
         <v>52</v>
@@ -6765,13 +6724,13 @@
         <v>2</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q53" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S53" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T53" s="14" t="s">
         <v>55</v>
@@ -6780,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="V53" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W53" s="14" t="s">
         <v>51</v>
@@ -6834,7 +6793,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>52</v>
@@ -6846,16 +6805,16 @@
         <v>3</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q54" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S54" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V54" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W54" s="14" t="s">
         <v>58</v>
@@ -6902,7 +6861,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>30</v>
@@ -6914,7 +6873,7 @@
         <v>50</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>52</v>
@@ -6926,13 +6885,13 @@
         <v>3</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q55" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S55" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T55" s="14" t="s">
         <v>56</v>
@@ -6941,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="V55" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W55" s="14" t="s">
         <v>58</v>
@@ -6991,7 +6950,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>52</v>
@@ -7003,16 +6962,16 @@
         <v>4</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q56" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W56" s="14" t="s">
         <v>58</v>
@@ -7059,7 +7018,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>30</v>
@@ -7071,7 +7030,7 @@
         <v>50</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>52</v>
@@ -7083,13 +7042,13 @@
         <v>4</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q57" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S57" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T57" s="14" t="s">
         <v>55</v>
@@ -7098,7 +7057,7 @@
         <v>2</v>
       </c>
       <c r="V57" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W57" s="14" t="s">
         <v>58</v>
@@ -7142,14 +7101,14 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L58" t="s">
         <v>70</v>
@@ -7161,16 +7120,16 @@
         <v>1</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q58" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S58" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V58" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W58" t="s">
         <v>58</v>
@@ -7222,15 +7181,15 @@
         <v>112</v>
       </c>
       <c r="AQ58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -7245,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s">
         <v>70</v>
@@ -7260,16 +7219,16 @@
         <v>1</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q59" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S59" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V59" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W59" t="s">
         <v>58</v>
@@ -7321,7 +7280,7 @@
         <v>112</v>
       </c>
       <c r="AQ59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -7332,7 +7291,7 @@
         <v>31</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>132</v>
@@ -7344,16 +7303,16 @@
         <v>1</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q60" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S60" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V60" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W60" s="14" t="s">
         <v>58</v>
@@ -7398,7 +7357,7 @@
         <v>102</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>31</v>
@@ -7413,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L61" s="14" t="s">
         <v>132</v>
@@ -7428,16 +7387,16 @@
         <v>1</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q61" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S61" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V61" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W61" s="14" t="s">
         <v>58</v>
@@ -7482,7 +7441,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>31</v>
@@ -7497,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L62" s="14" t="s">
         <v>132</v>
@@ -7512,16 +7471,16 @@
         <v>1</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q62" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S62" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V62" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W62" s="14" t="s">
         <v>58</v>
@@ -7569,7 +7528,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L63" s="14" t="s">
         <v>29</v>
@@ -7581,16 +7540,16 @@
         <v>1</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q63" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S63" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V63" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W63" s="14" t="s">
         <v>58</v>
@@ -7658,7 +7617,7 @@
         <v>28</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>30</v>
@@ -7679,7 +7638,7 @@
         <v>32</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L64" s="14" t="s">
         <v>29</v>
@@ -7691,16 +7650,16 @@
         <v>1</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q64" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V64" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W64" s="14" t="s">
         <v>58</v>
@@ -7771,7 +7730,7 @@
         <v>30</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>29</v>
@@ -7783,16 +7742,16 @@
         <v>2</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q65" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S65" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V65" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W65" s="14" t="s">
         <v>58</v>
@@ -7857,7 +7816,7 @@
         <v>28</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>30</v>
@@ -7878,7 +7837,7 @@
         <v>32</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L66" s="14" t="s">
         <v>29</v>
@@ -7890,16 +7849,16 @@
         <v>2</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q66" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S66" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V66" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W66" s="14" t="s">
         <v>58</v>
@@ -7961,10 +7920,10 @@
     </row>
     <row r="67" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>30</v>
@@ -7985,13 +7944,13 @@
         <v>203</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="K67" s="33" t="s">
-        <v>330</v>
+        <v>266</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O67" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q67" s="17" t="s">
         <v>23</v>
@@ -8000,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W67" s="17" t="s">
         <v>58</v>
@@ -8060,7 +8019,7 @@
         <v>51.21</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ67" s="17" t="s">
         <v>206</v>
@@ -8068,10 +8027,10 @@
     </row>
     <row r="68" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>30</v>
@@ -8092,16 +8051,16 @@
         <v>203</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J68" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K68" s="33" t="s">
-        <v>330</v>
+      <c r="K68" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P68" s="17" t="s">
         <v>146</v>
@@ -8113,10 +8072,10 @@
         <v>1</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="V68" s="37" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="V68" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="W68" s="17" t="s">
         <v>58</v>
@@ -8173,7 +8132,7 @@
         <v>17.93</v>
       </c>
       <c r="AP68" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ68" s="17" t="s">
         <v>207</v>
@@ -8181,10 +8140,10 @@
     </row>
     <row r="69" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>30</v>
@@ -8205,19 +8164,19 @@
         <v>203</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J69" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K69" s="33" t="s">
+      <c r="K69" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="O69" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="P69" s="17" t="s">
         <v>330</v>
-      </c>
-      <c r="O69" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="P69" s="17" t="s">
-        <v>334</v>
       </c>
       <c r="Q69" s="17" t="s">
         <v>191</v>
@@ -8226,10 +8185,10 @@
         <v>1</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W69" s="17" t="s">
         <v>58</v>
@@ -8286,7 +8245,7 @@
         <v>13.19</v>
       </c>
       <c r="AP69" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ69" s="17" t="s">
         <v>208</v>
@@ -8294,10 +8253,10 @@
     </row>
     <row r="70" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>30</v>
@@ -8318,13 +8277,13 @@
         <v>203</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="K70" s="33" t="s">
-        <v>330</v>
+        <v>266</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O70" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q70" s="17" t="s">
         <v>23</v>
@@ -8333,10 +8292,10 @@
         <v>2</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V70" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W70" s="17" t="s">
         <v>58</v>
@@ -8393,7 +8352,7 @@
         <v>44.76</v>
       </c>
       <c r="AP70" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ70" s="17" t="s">
         <v>209</v>
@@ -8401,10 +8360,10 @@
     </row>
     <row r="71" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>30</v>
@@ -8425,16 +8384,16 @@
         <v>203</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J71" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K71" s="33" t="s">
-        <v>330</v>
+      <c r="K71" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O71" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P71" s="17" t="s">
         <v>146</v>
@@ -8446,10 +8405,10 @@
         <v>2</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V71" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W71" s="17" t="s">
         <v>58</v>
@@ -8506,7 +8465,7 @@
         <v>11.53</v>
       </c>
       <c r="AP71" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ71" s="17" t="s">
         <v>210</v>
@@ -8514,10 +8473,10 @@
     </row>
     <row r="72" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>30</v>
@@ -8538,19 +8497,19 @@
         <v>203</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J72" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K72" s="33" t="s">
+      <c r="K72" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="O72" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="P72" s="17" t="s">
         <v>330</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="P72" s="17" t="s">
-        <v>334</v>
       </c>
       <c r="Q72" s="17" t="s">
         <v>191</v>
@@ -8559,10 +8518,10 @@
         <v>2</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W72" s="17" t="s">
         <v>58</v>
@@ -8619,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="AP72" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ72" s="17" t="s">
         <v>211</v>
@@ -8627,10 +8586,10 @@
     </row>
     <row r="73" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>30</v>
@@ -8639,16 +8598,16 @@
         <v>0</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J73" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K73" s="33" t="s">
-        <v>330</v>
+      <c r="K73" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q73" s="17" t="s">
         <v>23</v>
@@ -8657,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T73" s="17" t="s">
         <v>108</v>
@@ -8666,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W73" s="17" t="s">
         <v>58</v>
@@ -8720,18 +8679,18 @@
         <v>54</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>30</v>
@@ -8740,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J74" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K74" s="33" t="s">
-        <v>330</v>
+      <c r="K74" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P74" s="17" t="s">
         <v>195</v>
@@ -8761,10 +8720,10 @@
         <v>1</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="V74" s="37" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="V74" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="W74" s="17" t="s">
         <v>58</v>
@@ -8818,18 +8777,18 @@
         <v>45</v>
       </c>
       <c r="AP74" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ74" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>30</v>
@@ -8838,22 +8797,22 @@
         <v>0</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J75" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="33" t="s">
-        <v>330</v>
+      <c r="K75" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O75" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q75" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S75" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T75" s="17" t="s">
         <v>117</v>
@@ -8862,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="V75" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W75" s="17" t="s">
         <v>58</v>
@@ -8916,18 +8875,18 @@
         <v>44</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ75" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>30</v>
@@ -8936,16 +8895,16 @@
         <v>0</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J76" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K76" s="33" t="s">
-        <v>330</v>
+      <c r="K76" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O76" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q76" s="17" t="s">
         <v>23</v>
@@ -8954,7 +8913,7 @@
         <v>2</v>
       </c>
       <c r="S76" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T76" s="17" t="s">
         <v>108</v>
@@ -8963,7 +8922,7 @@
         <v>2</v>
       </c>
       <c r="V76" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W76" s="17" t="s">
         <v>58</v>
@@ -9002,7 +8961,7 @@
         <v>3.6</v>
       </c>
       <c r="AJ76" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AL76" s="17" t="s">
         <v>46</v>
@@ -9017,18 +8976,18 @@
         <v>45</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ76" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>30</v>
@@ -9037,16 +8996,16 @@
         <v>0</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J77" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K77" s="33" t="s">
-        <v>330</v>
+      <c r="K77" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P77" s="17" t="s">
         <v>195</v>
@@ -9058,10 +9017,10 @@
         <v>2</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V77" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W77" s="17" t="s">
         <v>58</v>
@@ -9115,18 +9074,18 @@
         <v>42</v>
       </c>
       <c r="AP77" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ77" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>30</v>
@@ -9135,22 +9094,22 @@
         <v>0</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J78" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K78" s="33" t="s">
-        <v>330</v>
+      <c r="K78" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O78" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q78" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S78" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T78" s="17" t="s">
         <v>117</v>
@@ -9159,7 +9118,7 @@
         <v>2</v>
       </c>
       <c r="V78" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W78" s="17" t="s">
         <v>58</v>
@@ -9198,7 +9157,7 @@
         <v>3.6</v>
       </c>
       <c r="AJ78" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AL78" s="17" t="s">
         <v>46</v>
@@ -9213,18 +9172,18 @@
         <v>27</v>
       </c>
       <c r="AP78" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ78" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>30</v>
@@ -9233,16 +9192,16 @@
         <v>0</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J79" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K79" s="33" t="s">
-        <v>330</v>
+      <c r="K79" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O79" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q79" s="17" t="s">
         <v>23</v>
@@ -9251,7 +9210,7 @@
         <v>3</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T79" s="17" t="s">
         <v>108</v>
@@ -9260,7 +9219,7 @@
         <v>3</v>
       </c>
       <c r="V79" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W79" s="17" t="s">
         <v>58</v>
@@ -9314,18 +9273,18 @@
         <v>25</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ79" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>30</v>
@@ -9334,16 +9293,16 @@
         <v>0</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J80" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K80" s="33" t="s">
-        <v>330</v>
+      <c r="K80" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O80" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P80" s="17" t="s">
         <v>195</v>
@@ -9355,10 +9314,10 @@
         <v>3</v>
       </c>
       <c r="S80" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="V80" s="37" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="V80" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="W80" s="17" t="s">
         <v>58</v>
@@ -9397,7 +9356,7 @@
         <v>3.6</v>
       </c>
       <c r="AJ80" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AL80" s="17" t="s">
         <v>46</v>
@@ -9412,18 +9371,18 @@
         <v>21</v>
       </c>
       <c r="AP80" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ80" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>30</v>
@@ -9432,22 +9391,22 @@
         <v>0</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J81" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K81" s="33" t="s">
-        <v>330</v>
+      <c r="K81" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="O81" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q81" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T81" s="17" t="s">
         <v>117</v>
@@ -9456,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="V81" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W81" s="17" t="s">
         <v>58</v>
@@ -9510,10 +9469,10 @@
         <v>10</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ81" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -9526,8 +9485,8 @@
       <c r="I82" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K82" s="33" t="s">
-        <v>331</v>
+      <c r="K82" s="31" t="s">
+        <v>327</v>
       </c>
       <c r="L82" s="17" t="s">
         <v>29</v>
@@ -9539,16 +9498,16 @@
         <v>1</v>
       </c>
       <c r="O82" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q82" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V82" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W82" s="17" t="s">
         <v>58</v>
@@ -9595,12 +9554,12 @@
       <c r="AN82" s="17">
         <v>0.09</v>
       </c>
-      <c r="AO82" s="34">
+      <c r="AO82" s="32">
         <f>1.429/(AH82*AA82/10)*100</f>
         <v>14.29</v>
       </c>
       <c r="AP82" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ82" s="17" t="s">
         <v>174</v>
@@ -9611,7 +9570,7 @@
         <v>171</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>30</v>
@@ -9625,8 +9584,8 @@
       <c r="I83" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K83" s="33" t="s">
-        <v>331</v>
+      <c r="K83" s="31" t="s">
+        <v>327</v>
       </c>
       <c r="L83" s="17" t="s">
         <v>29</v>
@@ -9638,16 +9597,16 @@
         <v>1</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q83" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S83" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V83" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W83" s="17" t="s">
         <v>58</v>
@@ -9694,12 +9653,12 @@
       <c r="AN83" s="17">
         <v>0.09</v>
       </c>
-      <c r="AO83" s="34">
+      <c r="AO83" s="32">
         <f>2.267/(AH83*AA83/10)*100</f>
         <v>17.438461538461539</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ83" s="17" t="s">
         <v>175</v>
@@ -9715,8 +9674,8 @@
       <c r="I84" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K84" s="33" t="s">
-        <v>331</v>
+      <c r="K84" s="31" t="s">
+        <v>327</v>
       </c>
       <c r="L84" s="17" t="s">
         <v>29</v>
@@ -9728,16 +9687,16 @@
         <v>2</v>
       </c>
       <c r="O84" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q84" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S84" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V84" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W84" s="17" t="s">
         <v>58</v>
@@ -9784,12 +9743,12 @@
       <c r="AN84" s="17">
         <v>0.09</v>
       </c>
-      <c r="AO84" s="34">
+      <c r="AO84" s="32">
         <f>2.014/(AH84*AA84/10)*100</f>
         <v>20.139999999999997</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ84" s="17" t="s">
         <v>176</v>
@@ -9800,7 +9759,7 @@
         <v>171</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>30</v>
@@ -9814,8 +9773,8 @@
       <c r="I85" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K85" s="33" t="s">
-        <v>331</v>
+      <c r="K85" s="31" t="s">
+        <v>327</v>
       </c>
       <c r="L85" s="17" t="s">
         <v>29</v>
@@ -9827,16 +9786,16 @@
         <v>2</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q85" s="17" t="s">
         <v>54</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V85" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W85" s="17" t="s">
         <v>58</v>
@@ -9883,12 +9842,12 @@
       <c r="AN85" s="17">
         <v>0.09</v>
       </c>
-      <c r="AO85" s="34">
+      <c r="AO85" s="32">
         <f>2.978/(AH85*AA85/10)*100</f>
         <v>22.907692307692308</v>
       </c>
       <c r="AP85" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ85" s="17" t="s">
         <v>177</v>
@@ -9896,10 +9855,10 @@
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -9914,22 +9873,22 @@
         <v>50</v>
       </c>
       <c r="H86" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q86" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S86" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T86" t="s">
         <v>56</v>
@@ -9938,13 +9897,13 @@
         <v>1</v>
       </c>
       <c r="V86" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W86" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X86" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y86" s="14"/>
       <c r="Z86" t="s">
@@ -9976,18 +9935,18 @@
         <v>30.4</v>
       </c>
       <c r="AP86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
@@ -10002,41 +9961,41 @@
         <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q87" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S87" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U87">
         <v>1</v>
       </c>
       <c r="V87" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W87" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X87" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y87" s="14"/>
       <c r="Z87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AA87" s="27">
         <f>130/AI87</f>
@@ -10064,18 +10023,18 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AP87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -10090,16 +10049,16 @@
         <v>50</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q88" t="s">
         <v>23</v>
@@ -10108,20 +10067,20 @@
         <v>1</v>
       </c>
       <c r="S88" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V88" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W88" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X88" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y88" s="14"/>
       <c r="Z88" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AA88" s="27">
         <f>200/AI88</f>
@@ -10143,24 +10102,24 @@
         <v>11</v>
       </c>
       <c r="AL88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO88">
         <v>1.6</v>
       </c>
       <c r="AP88" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ88" t="s">
         <v>253</v>
-      </c>
-      <c r="AQ88" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -10175,19 +10134,19 @@
         <v>50</v>
       </c>
       <c r="H89" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I89" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J89" t="s">
         <v>192</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P89" t="s">
         <v>146</v>
@@ -10199,20 +10158,20 @@
         <v>1</v>
       </c>
       <c r="S89" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V89" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W89" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X89" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y89" s="14"/>
       <c r="Z89" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AA89" s="27">
         <f>200/AI89</f>
@@ -10234,24 +10193,24 @@
         <v>11</v>
       </c>
       <c r="AL89" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO89">
         <v>4.5</v>
       </c>
       <c r="AP89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ89" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
@@ -10266,25 +10225,25 @@
         <v>50</v>
       </c>
       <c r="H90" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I90" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J90" t="s">
         <v>192</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q90" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S90" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T90" t="s">
         <v>56</v>
@@ -10293,13 +10252,13 @@
         <v>2</v>
       </c>
       <c r="V90" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W90" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X90" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y90" s="14"/>
       <c r="Z90" t="s">
@@ -10325,24 +10284,24 @@
         <v>6.2</v>
       </c>
       <c r="AL90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AO90">
         <v>46.3</v>
       </c>
       <c r="AP90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
@@ -10357,44 +10316,44 @@
         <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J91" t="s">
         <v>192</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q91" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S91" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U91">
         <v>2</v>
       </c>
       <c r="V91" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W91" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X91" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y91" s="14"/>
       <c r="Z91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AA91" s="30">
         <f>180/AI91</f>
@@ -10416,16 +10375,16 @@
         <v>6.2</v>
       </c>
       <c r="AL91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AO91">
         <v>10.6</v>
       </c>
       <c r="AP91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -10436,7 +10395,7 @@
         <v>30</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L92" s="14" t="s">
         <v>29</v>
@@ -10448,16 +10407,16 @@
         <v>1</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q92" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S92" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V92" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W92" s="14" t="s">
         <v>58</v>
@@ -10522,10 +10481,10 @@
         <v>101</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D93" s="14">
         <v>80</v>
@@ -10540,10 +10499,10 @@
         <v>118</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L93" s="14" t="s">
         <v>29</v>
@@ -10555,16 +10514,16 @@
         <v>1</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q93" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S93" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V93" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W93" s="14" t="s">
         <v>58</v>
@@ -10632,7 +10591,7 @@
         <v>30</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L94" s="14" t="s">
         <v>29</v>
@@ -10644,16 +10603,16 @@
         <v>2</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q94" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S94" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V94" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W94" s="14" t="s">
         <v>58</v>
@@ -10718,10 +10677,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D95" s="14">
         <v>80</v>
@@ -10736,10 +10695,10 @@
         <v>118</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L95" s="14" t="s">
         <v>29</v>
@@ -10751,16 +10710,16 @@
         <v>2</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q95" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S95" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V95" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W95" s="14" t="s">
         <v>58</v>
@@ -10828,7 +10787,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L96" s="14" t="s">
         <v>29</v>
@@ -10840,16 +10799,16 @@
         <v>3</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q96" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S96" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V96" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W96" s="14" t="s">
         <v>58</v>
@@ -10914,10 +10873,10 @@
         <v>101</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D97" s="14">
         <v>80</v>
@@ -10932,10 +10891,10 @@
         <v>118</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L97" s="14" t="s">
         <v>29</v>
@@ -10947,16 +10906,16 @@
         <v>3</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q97" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S97" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V97" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W97" s="14" t="s">
         <v>58</v>
@@ -11024,7 +10983,7 @@
         <v>30</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L98" s="14" t="s">
         <v>29</v>
@@ -11036,16 +10995,16 @@
         <v>4</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q98" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S98" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V98" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W98" s="14" t="s">
         <v>58</v>
@@ -11110,10 +11069,10 @@
         <v>101</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D99" s="14">
         <v>80</v>
@@ -11128,10 +11087,10 @@
         <v>118</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L99" s="14" t="s">
         <v>29</v>
@@ -11143,16 +11102,16 @@
         <v>4</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q99" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S99" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V99" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W99" s="14" t="s">
         <v>58</v>
@@ -11220,7 +11179,7 @@
         <v>31</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L100" s="14" t="s">
         <v>70</v>
@@ -11232,16 +11191,16 @@
         <v>1</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q100" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S100" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V100" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W100" s="14" t="s">
         <v>51</v>
@@ -11306,7 +11265,7 @@
         <v>138</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>31</v>
@@ -11324,10 +11283,10 @@
         <v>149</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L101" s="14" t="s">
         <v>70</v>
@@ -11339,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q101" s="14" t="s">
         <v>23</v>
@@ -11348,10 +11307,10 @@
         <v>1</v>
       </c>
       <c r="S101" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V101" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W101" s="14" t="s">
         <v>51</v>
@@ -11416,7 +11375,7 @@
         <v>138</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>31</v>
@@ -11434,13 +11393,13 @@
         <v>149</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P102" s="14" t="s">
         <v>146</v>
@@ -11452,10 +11411,10 @@
         <v>1</v>
       </c>
       <c r="S102" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V102" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W102" s="14" t="s">
         <v>51</v>
@@ -11523,7 +11482,7 @@
         <v>31</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L103" s="14" t="s">
         <v>70</v>
@@ -11535,16 +11494,16 @@
         <v>2</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q103" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S103" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V103" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W103" s="14" t="s">
         <v>51</v>
@@ -11609,7 +11568,7 @@
         <v>138</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>31</v>
@@ -11627,10 +11586,10 @@
         <v>149</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L104" s="14" t="s">
         <v>70</v>
@@ -11642,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q104" s="14" t="s">
         <v>23</v>
@@ -11651,10 +11610,10 @@
         <v>2</v>
       </c>
       <c r="S104" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V104" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W104" s="14" t="s">
         <v>51</v>
@@ -11719,7 +11678,7 @@
         <v>138</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>31</v>
@@ -11737,13 +11696,13 @@
         <v>149</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P105" s="14" t="s">
         <v>146</v>
@@ -11755,10 +11714,10 @@
         <v>2</v>
       </c>
       <c r="S105" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V105" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W105" s="14" t="s">
         <v>51</v>
@@ -11818,440 +11777,366 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:43" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C106" s="31" t="s">
+    <row r="106" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D106" s="31">
-        <v>62.5</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F106" s="31">
-        <v>12.5</v>
-      </c>
-      <c r="G106" s="31">
-        <v>25</v>
-      </c>
-      <c r="H106" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I106" s="31" t="s">
-        <v>272</v>
-      </c>
       <c r="K106" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="O106" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q106" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R106" s="31">
+      <c r="N106" s="24">
         <v>1</v>
       </c>
-      <c r="S106" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="V106" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="W106" s="31" t="s">
+      <c r="O106" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q106" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S106" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="V106" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="W106" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="X106" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y106" s="31">
+      <c r="X106" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y106" s="14">
+        <v>72</v>
+      </c>
+      <c r="Z106" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA106" s="14">
+        <v>53</v>
+      </c>
+      <c r="AC106" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="AF106" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="AG106" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="AH106" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="AJ106" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK106" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="AL106" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM106" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="AO106" s="13">
+        <v>40</v>
+      </c>
+      <c r="AP106" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ106" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="Z106" s="31" t="s">
+      <c r="B107" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N107" s="24">
+        <v>1</v>
+      </c>
+      <c r="O107" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q107" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R107" s="14">
+        <v>1</v>
+      </c>
+      <c r="S107" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="V107" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="W107" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X107" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y107" s="14">
+        <v>72</v>
+      </c>
+      <c r="Z107" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA106" s="31">
+      <c r="AA107" s="14">
+        <v>53</v>
+      </c>
+      <c r="AC107" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="AF107" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="AG107" s="25">
+        <v>7.6</v>
+      </c>
+      <c r="AH107" s="25">
+        <f>79.5/53</f>
+        <v>1.5</v>
+      </c>
+      <c r="AJ107" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK107" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="AL107" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM107" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="AO107" s="13">
+        <v>37</v>
+      </c>
+      <c r="AP107" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ107" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AB106" s="31">
-        <v>5.4</v>
-      </c>
-      <c r="AC106" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="AD106" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF106" s="31">
-        <v>6.2</v>
-      </c>
-      <c r="AG106" s="31">
-        <v>7.51</v>
-      </c>
-      <c r="AH106" s="31">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AJ106" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK106" s="31">
-        <v>9</v>
-      </c>
-      <c r="AL106" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO106" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP106" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ106" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:43" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C107" s="31" t="s">
+      <c r="K108" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="N108" s="24"/>
+      <c r="O108" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="P108" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q108" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="R108" s="14">
+        <v>1</v>
+      </c>
+      <c r="S108" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="V108" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="W108" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X108" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y108" s="14">
+        <v>72</v>
+      </c>
+      <c r="Z108" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA108" s="14">
+        <v>53</v>
+      </c>
+      <c r="AC108" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="AF108" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="AG108" s="25">
+        <v>8</v>
+      </c>
+      <c r="AH108" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AJ108" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK108" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="AL108" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM108" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="AO108" s="13">
+        <v>19</v>
+      </c>
+      <c r="AP108" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ108" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="31">
-        <v>62.5</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F107" s="31">
-        <v>12.5</v>
-      </c>
-      <c r="G107" s="31">
-        <v>25</v>
-      </c>
-      <c r="H107" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I107" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="J107" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="O107" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="P107" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q107" s="31" t="s">
+      <c r="K109" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="N109" s="24"/>
+      <c r="O109" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="P109" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q109" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="R107" s="31">
+      <c r="R109" s="14">
         <v>1</v>
       </c>
-      <c r="S107" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="V107" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="W107" s="31" t="s">
+      <c r="S109" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="V109" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="W109" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="X107" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y107" s="31">
-        <v>150</v>
-      </c>
-      <c r="Z107" s="31" t="s">
+      <c r="X109" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>72</v>
+      </c>
+      <c r="Z109" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA107" s="31">
-        <v>30</v>
-      </c>
-      <c r="AB107" s="31">
-        <v>5.4</v>
-      </c>
-      <c r="AC107" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="AD107" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF107" s="31">
-        <v>4.16</v>
-      </c>
-      <c r="AG107" s="31">
-        <v>7.53</v>
-      </c>
-      <c r="AH107" s="31">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AJ107" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK107" s="31">
-        <v>9</v>
-      </c>
-      <c r="AL107" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO107" s="31">
-        <v>36.6</v>
-      </c>
-      <c r="AP107" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ107" s="31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:43" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="31">
-        <v>62.5</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F108" s="31">
-        <v>12.5</v>
-      </c>
-      <c r="G108" s="31">
-        <v>25</v>
-      </c>
-      <c r="H108" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I108" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="K108" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="O108" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q108" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R108" s="31">
-        <v>2</v>
-      </c>
-      <c r="S108" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="V108" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="W108" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="X108" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y108" s="31">
-        <v>150</v>
-      </c>
-      <c r="Z108" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA108" s="31">
-        <v>30</v>
-      </c>
-      <c r="AB108" s="31">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AC108" s="31">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AD108" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF108" s="31">
-        <v>6.05</v>
-      </c>
-      <c r="AG108" s="31">
-        <v>7.66</v>
-      </c>
-      <c r="AH108" s="31">
-        <v>1.22</v>
-      </c>
-      <c r="AJ108" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK108" s="31">
-        <v>9</v>
-      </c>
-      <c r="AL108" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO108" s="31">
-        <v>16.8</v>
-      </c>
-      <c r="AP108" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ108" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:43" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D109" s="31">
-        <v>62.5</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F109" s="31">
-        <v>12.5</v>
-      </c>
-      <c r="G109" s="31">
-        <v>25</v>
-      </c>
-      <c r="H109" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I109" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="J109" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K109" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="O109" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="P109" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q109" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="R109" s="31">
-        <v>2</v>
-      </c>
-      <c r="S109" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="V109" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="W109" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="X109" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y109" s="31">
-        <v>150</v>
-      </c>
-      <c r="Z109" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA109" s="31">
-        <v>30</v>
-      </c>
-      <c r="AB109" s="31">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AC109" s="31">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AD109" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF109" s="31">
-        <v>4.22</v>
-      </c>
-      <c r="AG109" s="31">
-        <v>7.77</v>
-      </c>
-      <c r="AH109" s="31">
-        <v>1.31</v>
-      </c>
-      <c r="AJ109" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK109" s="31">
-        <v>9</v>
-      </c>
-      <c r="AL109" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO109" s="31">
-        <v>46.4</v>
-      </c>
-      <c r="AP109" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ109" s="31" t="s">
-        <v>210</v>
+      <c r="AA109" s="14">
+        <v>53</v>
+      </c>
+      <c r="AC109" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="AF109" s="25">
+        <v>4.3</v>
+      </c>
+      <c r="AG109" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="AH109" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AJ109" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK109" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="AL109" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM109" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="AO109" s="13">
+        <v>16</v>
+      </c>
+      <c r="AP109" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ109" s="14" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>150</v>
       </c>
+      <c r="B110" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="C110" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L110" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N110" s="24">
+        <v>326</v>
+      </c>
+      <c r="N110" s="24"/>
+      <c r="O110" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="P110" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q110" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="R110" s="14">
         <v>1</v>
       </c>
-      <c r="O110" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q110" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="S110" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V110" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W110" s="14" t="s">
         <v>58</v>
@@ -12271,14 +12156,14 @@
       <c r="AC110" s="14">
         <v>6.7</v>
       </c>
-      <c r="AF110" s="14">
-        <v>6.2</v>
-      </c>
-      <c r="AG110" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="AH110" s="14">
-        <v>1.6</v>
+      <c r="AF110" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="AG110" s="25">
+        <v>6.6</v>
+      </c>
+      <c r="AH110" s="25">
+        <v>1.5</v>
       </c>
       <c r="AJ110" s="14" t="s">
         <v>152</v>
@@ -12293,13 +12178,13 @@
         <v>1.3</v>
       </c>
       <c r="AO110" s="13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="AP110" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ110" s="14" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12307,37 +12192,34 @@
         <v>150</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L111" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N111" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q111" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R111" s="14">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="S111" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V111" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W111" s="14" t="s">
         <v>58</v>
@@ -12357,15 +12239,14 @@
       <c r="AC111" s="14">
         <v>6.7</v>
       </c>
-      <c r="AF111" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="AG111" s="25">
-        <v>7.6</v>
-      </c>
-      <c r="AH111" s="25">
-        <f>79.5/53</f>
-        <v>1.5</v>
+      <c r="AF111" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="AG111" s="14">
+        <v>7.4</v>
+      </c>
+      <c r="AH111" s="14">
+        <v>1.6</v>
       </c>
       <c r="AJ111" s="14" t="s">
         <v>152</v>
@@ -12380,13 +12261,13 @@
         <v>1.3</v>
       </c>
       <c r="AO111" s="13">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="AP111" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ111" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12394,32 +12275,37 @@
         <v>150</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K112" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="N112" s="24"/>
+      <c r="K112" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N112" s="24">
+        <v>2</v>
+      </c>
       <c r="O112" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="P112" s="14" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="Q112" s="14" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="R112" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S112" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V112" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W112" s="14" t="s">
         <v>58</v>
@@ -12440,12 +12326,13 @@
         <v>6.7</v>
       </c>
       <c r="AF112" s="25">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="AG112" s="25">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AH112" s="25">
+        <f>79.5/53</f>
         <v>1.5</v>
       </c>
       <c r="AJ112" s="14" t="s">
@@ -12461,13 +12348,13 @@
         <v>1.3</v>
       </c>
       <c r="AO112" s="13">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AP112" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ112" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12475,32 +12362,32 @@
         <v>150</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K113" s="12" t="s">
-        <v>330</v>
+      <c r="K113" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="N113" s="24"/>
       <c r="O113" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P113" s="14" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="Q113" s="14" t="s">
         <v>191</v>
       </c>
       <c r="R113" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S113" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V113" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W113" s="14" t="s">
         <v>58</v>
@@ -12521,10 +12408,10 @@
         <v>6.7</v>
       </c>
       <c r="AF113" s="25">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="AG113" s="25">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="AH113" s="25">
         <v>1.5</v>
@@ -12542,13 +12429,13 @@
         <v>1.3</v>
       </c>
       <c r="AO113" s="13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AP113" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ113" s="14" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12556,32 +12443,32 @@
         <v>150</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P114" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q114" s="14" t="s">
         <v>191</v>
       </c>
       <c r="R114" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S114" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V114" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W114" s="14" t="s">
         <v>58</v>
@@ -12602,10 +12489,10 @@
         <v>6.7</v>
       </c>
       <c r="AF114" s="25">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="AG114" s="25">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="AH114" s="25">
         <v>1.5</v>
@@ -12623,13 +12510,13 @@
         <v>1.3</v>
       </c>
       <c r="AO114" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP114" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ114" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -12637,34 +12524,32 @@
         <v>150</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L115" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N115" s="24">
+        <v>326</v>
+      </c>
+      <c r="N115" s="24"/>
+      <c r="O115" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="P115" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q115" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="R115" s="14">
         <v>2</v>
       </c>
-      <c r="O115" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q115" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="S115" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V115" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W115" s="14" t="s">
         <v>58</v>
@@ -12684,14 +12569,14 @@
       <c r="AC115" s="14">
         <v>6.7</v>
       </c>
-      <c r="AF115" s="14">
-        <v>6.2</v>
-      </c>
-      <c r="AG115" s="14">
-        <v>7.4</v>
-      </c>
-      <c r="AH115" s="14">
-        <v>1.6</v>
+      <c r="AF115" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="AG115" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="AH115" s="25">
+        <v>1.5</v>
       </c>
       <c r="AJ115" s="14" t="s">
         <v>152</v>
@@ -12706,375 +12591,446 @@
         <v>1.3</v>
       </c>
       <c r="AO115" s="13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AP115" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AQ115" s="14" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L116" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N116" s="24">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="N116" s="14">
+        <v>1</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q116" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R116" s="14">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="S116" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V116" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W116" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X116" s="14" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="Y116" s="14">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="Z116" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AA116" s="14">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AC116" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="AF116" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="AG116" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="AH116" s="25">
-        <f>79.5/53</f>
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="AD116" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="AF116" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="AG116" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="AH116" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="AI116" s="14">
+        <v>4.3</v>
       </c>
       <c r="AJ116" s="14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AK116" s="14">
-        <v>6.9</v>
+        <v>23</v>
       </c>
       <c r="AL116" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM116" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="AO116" s="13">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="AO116" s="14">
+        <v>38</v>
       </c>
       <c r="AP116" s="14" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="AQ116" s="14" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K117" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="N117" s="24"/>
+      <c r="D117" s="14">
+        <v>70</v>
+      </c>
+      <c r="F117" s="14">
+        <v>0</v>
+      </c>
+      <c r="G117" s="14">
+        <v>30</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M117" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N117" s="14">
+        <v>1</v>
+      </c>
       <c r="O117" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="P117" s="14" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="Q117" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="R117" s="14">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="S117" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="T117" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U117" s="14">
+        <v>1</v>
       </c>
       <c r="V117" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W117" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X117" s="14" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="Y117" s="14">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="Z117" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AA117" s="14">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AC117" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="AF117" s="25">
-        <v>2.4</v>
-      </c>
-      <c r="AG117" s="25">
-        <v>7.9</v>
-      </c>
-      <c r="AH117" s="25">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="AD117" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="AF117" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="AG117" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="AH117" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI117" s="14">
+        <v>3.8</v>
       </c>
       <c r="AJ117" s="14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AK117" s="14">
-        <v>6.9</v>
+        <v>23</v>
       </c>
       <c r="AL117" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM117" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="AO117" s="13">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="AO117" s="14">
+        <v>28</v>
       </c>
       <c r="AP117" s="14" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="AQ117" s="14" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K118" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="N118" s="24"/>
+      <c r="D118" s="14">
+        <v>70</v>
+      </c>
+      <c r="F118" s="14">
+        <v>0</v>
+      </c>
+      <c r="G118" s="14">
+        <v>30</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K118" s="14" t="s">
+        <v>326</v>
+      </c>
       <c r="O118" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="P118" s="14" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="Q118" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="R118" s="14">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="S118" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="T118" t="s">
+        <v>56</v>
+      </c>
+      <c r="U118" s="14">
+        <v>1</v>
       </c>
       <c r="V118" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W118" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X118" s="14" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="Y118" s="14">
-        <v>72</v>
-      </c>
-      <c r="Z118" s="14" t="s">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>56</v>
       </c>
       <c r="AA118" s="14">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AC118" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="AF118" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="AG118" s="25">
-        <v>3.2</v>
-      </c>
-      <c r="AH118" s="25">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="AD118" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="AF118" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="AG118" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="AH118" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI118" s="14">
+        <v>3.8</v>
       </c>
       <c r="AJ118" s="14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AK118" s="14">
-        <v>6.9</v>
+        <v>23</v>
       </c>
       <c r="AL118" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM118" s="14">
-        <v>1.3</v>
+        <v>46</v>
       </c>
       <c r="AO118" s="13">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AP118" s="14" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="AQ118" s="14" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="D119" s="14">
+        <v>70</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <v>30</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>270</v>
+      </c>
       <c r="K119" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="N119" s="24"/>
+        <v>326</v>
+      </c>
       <c r="O119" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="P119" s="14" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="Q119" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="R119" s="14">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="S119" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="T119" t="s">
+        <v>108</v>
+      </c>
+      <c r="U119" s="14">
+        <v>1</v>
       </c>
       <c r="V119" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W119" s="14" t="s">
         <v>58</v>
       </c>
       <c r="X119" s="14" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="Y119" s="14">
-        <v>72</v>
-      </c>
-      <c r="Z119" s="14" t="s">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>108</v>
       </c>
       <c r="AA119" s="14">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AC119" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="AF119" s="25">
-        <v>2.7</v>
-      </c>
-      <c r="AG119" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="AH119" s="25">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="AD119" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="AF119" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="AG119" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="AH119" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI119" s="14">
+        <v>3.8</v>
       </c>
       <c r="AJ119" s="14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="AK119" s="14">
-        <v>6.9</v>
+        <v>23</v>
       </c>
       <c r="AL119" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM119" s="14">
-        <v>1.3</v>
+        <v>46</v>
       </c>
       <c r="AO119" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AP119" s="14" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="AQ119" s="14" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>100</v>
       </c>
+      <c r="B120" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="C120" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="D120" s="14">
+        <v>70</v>
+      </c>
+      <c r="F120" s="14">
+        <v>0</v>
+      </c>
+      <c r="G120" s="14">
+        <v>30</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>270</v>
+      </c>
       <c r="K120" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N120" s="14">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q120" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S120" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="T120" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="U120" s="14">
+        <v>1</v>
       </c>
       <c r="V120" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W120" s="14" t="s">
         <v>58</v>
@@ -13086,7 +13042,7 @@
         <v>96</v>
       </c>
       <c r="Z120" s="14" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="AA120" s="14">
         <v>30</v>
@@ -13098,16 +13054,16 @@
         <v>4.5</v>
       </c>
       <c r="AF120" s="14">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="AG120" s="14">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="AH120" s="14">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI120" s="14">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AJ120" s="14" t="s">
         <v>114</v>
@@ -13118,70 +13074,49 @@
       <c r="AL120" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AO120" s="14">
-        <v>38</v>
+      <c r="AO120" s="13">
+        <v>12</v>
       </c>
       <c r="AP120" s="14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AQ120" s="14" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>331</v>
-      </c>
       <c r="C121" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="14">
-        <v>70</v>
-      </c>
-      <c r="F121" s="14">
-        <v>0</v>
-      </c>
-      <c r="G121" s="14">
-        <v>30</v>
-      </c>
-      <c r="H121" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I121" s="14" t="s">
-        <v>273</v>
-      </c>
       <c r="K121" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L121" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N121" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q121" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S121" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="T121" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U121" s="14">
-        <v>1</v>
-      </c>
       <c r="V121" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W121" s="14" t="s">
         <v>58</v>
@@ -13199,40 +13134,40 @@
         <v>30</v>
       </c>
       <c r="AC121" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD121" s="14">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AF121" s="14">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="AG121" s="14">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="AH121" s="14">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="AI121" s="14">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AJ121" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK121" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL121" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AO121" s="14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AP121" s="14" t="s">
         <v>61</v>
       </c>
       <c r="AQ121" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -13240,7 +13175,7 @@
         <v>100</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>30</v>
@@ -13258,28 +13193,37 @@
         <v>116</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="K122" s="14" t="s">
-        <v>330</v>
+        <v>270</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N122" s="14">
+        <v>2</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q122" s="14" t="s">
         <v>54</v>
       </c>
       <c r="S122" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="T122" t="s">
-        <v>56</v>
+        <v>327</v>
+      </c>
+      <c r="T122" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="U122" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V122" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W122" s="14" t="s">
         <v>58</v>
@@ -13290,17 +13234,17 @@
       <c r="Y122" s="14">
         <v>96</v>
       </c>
-      <c r="Z122" t="s">
-        <v>56</v>
+      <c r="Z122" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="AA122" s="14">
         <v>30</v>
       </c>
       <c r="AC122" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD122" s="14">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AF122" s="14">
         <v>4.8</v>
@@ -13315,30 +13259,30 @@
         <v>3.8</v>
       </c>
       <c r="AJ122" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK122" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL122" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO122" s="13">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="AO122" s="14">
+        <v>30</v>
       </c>
       <c r="AP122" s="14" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AQ122" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>30</v>
@@ -13346,6 +13290,7 @@
       <c r="D123" s="14">
         <v>70</v>
       </c>
+      <c r="E123" s="14"/>
       <c r="F123" s="14">
         <v>0</v>
       </c>
@@ -13356,28 +13301,29 @@
         <v>116</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="K123" s="12" t="s">
-        <v>330</v>
+        <v>270</v>
+      </c>
+      <c r="J123" s="14"/>
+      <c r="K123" t="s">
+        <v>326</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q123" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="S123" s="14" t="s">
-        <v>331</v>
+      <c r="S123" t="s">
+        <v>327</v>
       </c>
       <c r="T123" t="s">
-        <v>108</v>
-      </c>
-      <c r="U123" s="14">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
       </c>
       <c r="V123" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W123" s="14" t="s">
         <v>58</v>
@@ -13389,16 +13335,16 @@
         <v>96</v>
       </c>
       <c r="Z123" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA123" s="14">
+        <v>56</v>
+      </c>
+      <c r="AA123">
         <v>30</v>
       </c>
-      <c r="AC123" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD123" s="14">
-        <v>4.5</v>
+      <c r="AC123">
+        <v>13</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
       </c>
       <c r="AF123" s="14">
         <v>4.8</v>
@@ -13413,30 +13359,30 @@
         <v>3.8</v>
       </c>
       <c r="AJ123" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK123" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL123" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO123" s="13">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="AO123">
+        <v>33</v>
       </c>
       <c r="AP123" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ123" s="14" t="s">
+      <c r="AQ123" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>30</v>
@@ -13444,6 +13390,7 @@
       <c r="D124" s="14">
         <v>70</v>
       </c>
+      <c r="E124" s="14"/>
       <c r="F124" s="14">
         <v>0</v>
       </c>
@@ -13454,28 +13401,29 @@
         <v>116</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="K124" s="12" t="s">
-        <v>330</v>
+        <v>270</v>
+      </c>
+      <c r="J124" s="14"/>
+      <c r="K124" t="s">
+        <v>326</v>
       </c>
       <c r="O124" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q124" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="S124" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="T124" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="U124" s="14">
-        <v>1</v>
+      <c r="S124" t="s">
+        <v>327</v>
+      </c>
+      <c r="T124" t="s">
+        <v>273</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
       </c>
       <c r="V124" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W124" s="14" t="s">
         <v>58</v>
@@ -13486,17 +13434,17 @@
       <c r="Y124" s="14">
         <v>96</v>
       </c>
-      <c r="Z124" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA124" s="14">
+      <c r="Z124" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA124">
         <v>30</v>
       </c>
-      <c r="AC124" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD124" s="14">
-        <v>4.5</v>
+      <c r="AC124">
+        <v>13</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
       </c>
       <c r="AF124" s="14">
         <v>4.8</v>
@@ -13511,57 +13459,71 @@
         <v>3.8</v>
       </c>
       <c r="AJ124" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK124" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL124" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO124" s="13">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="AO124">
+        <v>22</v>
       </c>
       <c r="AP124" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ124" s="14" t="s">
+      <c r="AQ124" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>100</v>
       </c>
+      <c r="B125" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="C125" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K125" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L125" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N125" s="14">
-        <v>2</v>
+      <c r="D125" s="14">
+        <v>70</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14">
+        <v>0</v>
+      </c>
+      <c r="G125" s="14">
+        <v>30</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="J125" s="14"/>
+      <c r="K125" t="s">
+        <v>326</v>
       </c>
       <c r="O125" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q125" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="S125" s="14" t="s">
-        <v>330</v>
+      <c r="S125" t="s">
+        <v>327</v>
       </c>
       <c r="T125" s="14" t="s">
-        <v>35</v>
+        <v>272</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
       </c>
       <c r="V125" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="W125" s="14" t="s">
         <v>58</v>
@@ -13573,28 +13535,28 @@
         <v>96</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="AA125" s="14">
         <v>30</v>
       </c>
-      <c r="AC125" s="14">
+      <c r="AC125">
         <v>13</v>
       </c>
-      <c r="AD125" s="14">
+      <c r="AD125">
         <v>0</v>
       </c>
       <c r="AF125" s="14">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="AG125" s="14">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="AH125" s="14">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI125" s="14">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AJ125" s="14" t="s">
         <v>115</v>
@@ -13605,425 +13567,18 @@
       <c r="AL125" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AO125" s="14">
-        <v>34</v>
+      <c r="AO125">
+        <v>10</v>
       </c>
       <c r="AP125" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ125" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="14">
-        <v>70</v>
-      </c>
-      <c r="F126" s="14">
-        <v>0</v>
-      </c>
-      <c r="G126" s="14">
-        <v>30</v>
-      </c>
-      <c r="H126" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="K126" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L126" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N126" s="14">
-        <v>2</v>
-      </c>
-      <c r="O126" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q126" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S126" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="T126" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U126" s="14">
-        <v>2</v>
-      </c>
-      <c r="V126" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="W126" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X126" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y126" s="14">
-        <v>96</v>
-      </c>
-      <c r="Z126" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA126" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC126" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD126" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF126" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="AG126" s="14">
-        <v>8.9</v>
-      </c>
-      <c r="AH126" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI126" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="AJ126" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK126" s="14">
-        <v>22</v>
-      </c>
-      <c r="AL126" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO126" s="14">
-        <v>30</v>
-      </c>
-      <c r="AP126" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ126" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="14">
-        <v>70</v>
-      </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14">
-        <v>0</v>
-      </c>
-      <c r="G127" s="14">
-        <v>30</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J127" s="14"/>
-      <c r="K127" t="s">
-        <v>330</v>
-      </c>
-      <c r="O127" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q127" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S127" t="s">
-        <v>331</v>
-      </c>
-      <c r="T127" t="s">
-        <v>56</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="W127" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X127" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y127" s="14">
-        <v>96</v>
-      </c>
-      <c r="Z127" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA127">
-        <v>30</v>
-      </c>
-      <c r="AC127">
-        <v>13</v>
-      </c>
-      <c r="AD127">
-        <v>0</v>
-      </c>
-      <c r="AF127" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="AG127" s="14">
-        <v>8.9</v>
-      </c>
-      <c r="AH127" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI127" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="AJ127" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK127" s="14">
-        <v>22</v>
-      </c>
-      <c r="AL127" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO127">
-        <v>33</v>
-      </c>
-      <c r="AP127" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ127" t="s">
+      <c r="AQ125" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="14">
-        <v>70</v>
-      </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14">
-        <v>0</v>
-      </c>
-      <c r="G128" s="14">
-        <v>30</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J128" s="14"/>
-      <c r="K128" t="s">
-        <v>330</v>
-      </c>
-      <c r="O128" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q128" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S128" t="s">
-        <v>331</v>
-      </c>
-      <c r="T128" t="s">
-        <v>276</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
-      <c r="V128" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="W128" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X128" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y128" s="14">
-        <v>96</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA128">
-        <v>30</v>
-      </c>
-      <c r="AC128">
-        <v>13</v>
-      </c>
-      <c r="AD128">
-        <v>0</v>
-      </c>
-      <c r="AF128" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="AG128" s="14">
-        <v>8.9</v>
-      </c>
-      <c r="AH128" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI128" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="AJ128" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK128" s="14">
-        <v>22</v>
-      </c>
-      <c r="AL128" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO128">
-        <v>22</v>
-      </c>
-      <c r="AP128" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ128" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="14">
-        <v>70</v>
-      </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14">
-        <v>0</v>
-      </c>
-      <c r="G129" s="14">
-        <v>30</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J129" s="14"/>
-      <c r="K129" t="s">
-        <v>330</v>
-      </c>
-      <c r="O129" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q129" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S129" t="s">
-        <v>331</v>
-      </c>
-      <c r="T129" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="W129" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X129" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y129" s="14">
-        <v>96</v>
-      </c>
-      <c r="Z129" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA129" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC129">
-        <v>13</v>
-      </c>
-      <c r="AD129">
-        <v>0</v>
-      </c>
-      <c r="AF129" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="AG129" s="14">
-        <v>8.9</v>
-      </c>
-      <c r="AH129" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI129" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="AJ129" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK129" s="14">
-        <v>22</v>
-      </c>
-      <c r="AL129" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO129">
-        <v>10</v>
-      </c>
-      <c r="AP129" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ129" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Y132" s="14"/>
+      <c r="Y128" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lit_data/litterature NH3 field app digestate.xlsx
+++ b/lit_data/litterature NH3 field app digestate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Dokumenter/GitHub/Pedersen-2023-app-digestate-NH3-review/lit_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="13_ncr:1_{C1797D30-0D28-4E65-8294-8CCA02D88F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041A8655-AF25-404D-B1A9-D10C6B5EB71D}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{C1797D30-0D28-4E65-8294-8CCA02D88F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9E563B-E008-43D2-976D-52F2A3A33690}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3045" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{90B750BC-7ABB-4C51-B01A-3142C31660F6}"/>
+    <workbookView xWindow="-38520" yWindow="-3255" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{90B750BC-7ABB-4C51-B01A-3142C31660F6}"/>
   </bookViews>
   <sheets>
     <sheet name="front page" sheetId="1" r:id="rId1"/>
@@ -1843,10 +1843,10 @@
   <dimension ref="A1:AS122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="23" ySplit="2" topLeftCell="X32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="23" ySplit="2" topLeftCell="X54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7368,7 +7368,7 @@
         <v>28</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
         <v>30</v>
@@ -7463,7 +7463,7 @@
         <v>28</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>318</v>
@@ -7576,7 +7576,7 @@
         <v>28</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
@@ -7668,7 +7668,7 @@
         <v>28</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>318</v>
@@ -7778,7 +7778,7 @@
         <v>331</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>318</v>
@@ -7882,7 +7882,7 @@
         <v>331</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>318</v>
@@ -7983,7 +7983,7 @@
         <v>331</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>318</v>
@@ -8084,7 +8084,7 @@
         <v>331</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>318</v>
@@ -8188,7 +8188,7 @@
         <v>331</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>318</v>
@@ -8289,7 +8289,7 @@
         <v>331</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>318</v>
@@ -8390,7 +8390,7 @@
         <v>331</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>318</v>
@@ -8494,7 +8494,7 @@
         <v>331</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>318</v>
@@ -8595,7 +8595,7 @@
         <v>331</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>318</v>
@@ -9380,7 +9380,7 @@
         <v>165</v>
       </c>
       <c r="B79" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>30</v>
@@ -9473,7 +9473,7 @@
         <v>165</v>
       </c>
       <c r="B80" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>317</v>
@@ -9575,7 +9575,7 @@
         <v>165</v>
       </c>
       <c r="B81" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>30</v>
@@ -9668,7 +9668,7 @@
         <v>165</v>
       </c>
       <c r="B82" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>317</v>
@@ -9770,7 +9770,7 @@
         <v>241</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>318</v>
@@ -9860,7 +9860,7 @@
         <v>241</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>318</v>
@@ -9950,7 +9950,7 @@
         <v>241</v>
       </c>
       <c r="B85">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
         <v>318</v>
@@ -10037,7 +10037,7 @@
         <v>241</v>
       </c>
       <c r="B86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>318</v>
@@ -10130,7 +10130,7 @@
         <v>241</v>
       </c>
       <c r="B87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>318</v>
@@ -10223,7 +10223,7 @@
         <v>241</v>
       </c>
       <c r="B88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
         <v>318</v>
@@ -10316,7 +10316,7 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>30</v>
@@ -10408,7 +10408,7 @@
         <v>101</v>
       </c>
       <c r="B90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
         <v>318</v>
@@ -10518,7 +10518,7 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
@@ -10610,7 +10610,7 @@
         <v>101</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
         <v>318</v>
@@ -10720,7 +10720,7 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
@@ -10812,7 +10812,7 @@
         <v>101</v>
       </c>
       <c r="B94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>318</v>
@@ -10922,7 +10922,7 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
         <v>30</v>
@@ -11014,7 +11014,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
         <v>318</v>
@@ -11124,7 +11124,7 @@
         <v>133</v>
       </c>
       <c r="B97">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -11216,7 +11216,7 @@
         <v>133</v>
       </c>
       <c r="B98">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
         <v>318</v>
@@ -11329,7 +11329,7 @@
         <v>133</v>
       </c>
       <c r="B99">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
         <v>318</v>
@@ -11436,7 +11436,7 @@
         <v>133</v>
       </c>
       <c r="B100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
@@ -11528,7 +11528,7 @@
         <v>133</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
         <v>318</v>
@@ -11641,7 +11641,7 @@
         <v>133</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
         <v>318</v>
@@ -11748,7 +11748,7 @@
         <v>145</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>30</v>
@@ -11831,7 +11831,7 @@
         <v>145</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
         <v>318</v>
@@ -11921,7 +11921,7 @@
         <v>145</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
         <v>318</v>
@@ -12005,7 +12005,7 @@
         <v>145</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
@@ -12089,7 +12089,7 @@
         <v>145</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
         <v>318</v>
@@ -12173,7 +12173,7 @@
         <v>145</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
         <v>318</v>
@@ -12259,7 +12259,7 @@
         <v>145</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
         <v>318</v>
@@ -12349,7 +12349,7 @@
         <v>145</v>
       </c>
       <c r="B110">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
         <v>318</v>
@@ -12433,7 +12433,7 @@
         <v>145</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
         <v>318</v>
@@ -12517,7 +12517,7 @@
         <v>145</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
         <v>318</v>
@@ -12601,7 +12601,7 @@
         <v>100</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
         <v>30</v>
@@ -12687,7 +12687,7 @@
         <v>100</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
         <v>318</v>
@@ -12797,7 +12797,7 @@
         <v>100</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
         <v>318</v>
@@ -12898,7 +12898,7 @@
         <v>100</v>
       </c>
       <c r="B116">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C116" t="s">
         <v>318</v>
@@ -12999,7 +12999,7 @@
         <v>100</v>
       </c>
       <c r="B117">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
         <v>318</v>
@@ -13100,7 +13100,7 @@
         <v>100</v>
       </c>
       <c r="B118">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
         <v>30</v>
@@ -13189,7 +13189,7 @@
         <v>100</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
         <v>318</v>
@@ -13299,7 +13299,7 @@
         <v>100</v>
       </c>
       <c r="B120">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
         <v>318</v>
@@ -13400,7 +13400,7 @@
         <v>100</v>
       </c>
       <c r="B121">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
         <v>318</v>
@@ -13501,7 +13501,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" t="s">
         <v>318</v>

--- a/lit_data/litterature NH3 field app digestate.xlsx
+++ b/lit_data/litterature NH3 field app digestate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au583430\OneDrive - Aarhus Universitet\Documents\GitHub\Pedersen-2023-app-digestate-NH3-review\lit_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Documents/GitHub/Pedersen-2023-app-digestate-NH3-review/lit_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1C297-195A-4EF3-A415-7CB2116D92C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{93F1C297-195A-4EF3-A415-7CB2116D92C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{307A5A01-5D75-4D7A-8D66-D5C84B1AA6C6}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3255" windowWidth="38640" windowHeight="21240" xr2:uid="{90B750BC-7ABB-4C51-B01A-3142C31660F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{90B750BC-7ABB-4C51-B01A-3142C31660F6}"/>
   </bookViews>
   <sheets>
     <sheet name="front page" sheetId="1" r:id="rId1"/>
@@ -559,9 +559,6 @@
     <t>relative fraction</t>
   </si>
   <si>
-    <t>relative difference from digestate treatment</t>
-  </si>
-  <si>
     <t>absolute emission (micro meteorological measurement)</t>
   </si>
   <si>
@@ -692,9 +689,6 @@
   </si>
   <si>
     <t>2003 Bio</t>
-  </si>
-  <si>
-    <t>relative difference from application method</t>
   </si>
   <si>
     <t>application experimental set</t>
@@ -1252,6 +1246,12 @@
   </si>
   <si>
     <t>Pedersen et al., in preparation</t>
+  </si>
+  <si>
+    <t>relative effect of digestate treatment</t>
+  </si>
+  <si>
+    <t>relative effect of application method</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFC44C0-728E-4579-9586-93B899D38729}">
   <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1811,27 +1811,27 @@
   <sheetData>
     <row r="2" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1877,11 +1877,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D742FF6C-C430-4FEB-AF80-80FE7E2AA56C}">
   <dimension ref="A1:AS122"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="23" ySplit="2" topLeftCell="X71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="23" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1961,7 @@
       <c r="AI1" s="25"/>
       <c r="AJ1" s="25"/>
       <c r="AK1" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL1" s="30"/>
       <c r="AM1" s="30"/>
@@ -2009,40 +2009,40 @@
         <v>131</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>173</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>172</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>56</v>
@@ -2069,19 +2069,19 @@
         <v>12</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>14</v>
@@ -2099,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>19</v>
@@ -2113,136 +2113,136 @@
     </row>
     <row r="3" spans="1:45" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="Y3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Z3" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AG3" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AI3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK3" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AL3" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="AM3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AN3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP3" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AR3" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="AS3" s="4" t="s">
         <v>21</v>
@@ -2267,7 +2267,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>46</v>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X4" t="s">
         <v>57</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>46</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10" t="s">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X5" t="s">
         <v>57</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2453,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R6" t="s">
         <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X6" t="s">
         <v>57</v>
@@ -2525,10 +2525,10 @@
         <v>28.7</v>
       </c>
       <c r="AQ6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AR6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AS6" t="s">
         <v>32</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -2563,7 +2563,7 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
@@ -2575,16 +2575,16 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R7" t="s">
         <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X7" t="s">
         <v>57</v>
@@ -2635,10 +2635,10 @@
         <v>32.4</v>
       </c>
       <c r="AQ7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AR7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AS7" t="s">
         <v>32</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -2673,10 +2673,10 @@
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R8" t="s">
         <v>22</v>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U8" t="s">
         <v>34</v>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X8" t="s">
         <v>57</v>
@@ -2745,21 +2745,21 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AR8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -2780,25 +2780,25 @@
         <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X9" t="s">
         <v>57</v>
@@ -2849,21 +2849,21 @@
         <v>2.5</v>
       </c>
       <c r="AQ9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AR9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -2884,16 +2884,16 @@
         <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U10" t="s">
         <v>106</v>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X10" t="s">
         <v>57</v>
@@ -2953,10 +2953,10 @@
         <v>15.5</v>
       </c>
       <c r="AQ10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AR10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M11" t="s">
         <v>69</v>
@@ -2982,16 +2982,16 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X11" t="s">
         <v>57</v>
@@ -3046,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M12" t="s">
         <v>69</v>
@@ -3076,16 +3076,16 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R12" t="s">
         <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X12" t="s">
         <v>57</v>
@@ -3143,7 +3143,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M13" t="s">
         <v>69</v>
@@ -3155,16 +3155,16 @@
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R13" t="s">
         <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X13" t="s">
         <v>57</v>
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -3237,7 +3237,7 @@
         <v>70</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M14" t="s">
         <v>69</v>
@@ -3249,16 +3249,16 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X14" t="s">
         <v>57</v>
@@ -3316,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M15" t="s">
         <v>69</v>
@@ -3328,16 +3328,16 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R15" s="10" t="s">
         <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X15" t="s">
         <v>57</v>
@@ -3392,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -3410,7 +3410,7 @@
         <v>70</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M16" t="s">
         <v>69</v>
@@ -3422,16 +3422,16 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R16" t="s">
         <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X16" t="s">
         <v>57</v>
@@ -3475,7 +3475,7 @@
         <v>77</v>
       </c>
       <c r="AR16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -3489,7 +3489,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M17" t="s">
         <v>69</v>
@@ -3501,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R17" t="s">
         <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X17" t="s">
         <v>57</v>
@@ -3572,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -3590,7 +3590,7 @@
         <v>79</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M18" t="s">
         <v>69</v>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R18" t="s">
         <v>22</v>
@@ -3611,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X18" t="s">
         <v>57</v>
@@ -3676,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -3694,25 +3694,25 @@
         <v>79</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q19" t="s">
         <v>140</v>
       </c>
       <c r="R19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X19" t="s">
         <v>57</v>
@@ -3763,7 +3763,7 @@
         <v>87</v>
       </c>
       <c r="AR19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M20" t="s">
         <v>69</v>
@@ -3789,16 +3789,16 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R20" t="s">
         <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X20" t="s">
         <v>57</v>
@@ -3860,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -3878,7 +3878,7 @@
         <v>79</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M21" t="s">
         <v>69</v>
@@ -3890,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R21" t="s">
         <v>22</v>
@@ -3899,10 +3899,10 @@
         <v>2</v>
       </c>
       <c r="T21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X21" t="s">
         <v>57</v>
@@ -3956,7 +3956,7 @@
         <v>84</v>
       </c>
       <c r="AS21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -3985,25 +3985,25 @@
         <v>79</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q22" t="s">
         <v>140</v>
       </c>
       <c r="R22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S22">
         <v>2</v>
       </c>
       <c r="T22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X22" t="s">
         <v>57</v>
@@ -4054,7 +4054,7 @@
         <v>87</v>
       </c>
       <c r="AR22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>30</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M23" t="s">
         <v>69</v>
@@ -4080,16 +4080,16 @@
         <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R23" t="s">
         <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X23" t="s">
         <v>57</v>
@@ -4143,7 +4143,7 @@
         <v>85</v>
       </c>
       <c r="AS23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -4172,7 +4172,7 @@
         <v>79</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M24" t="s">
         <v>69</v>
@@ -4184,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R24" t="s">
         <v>22</v>
@@ -4193,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="T24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X24" t="s">
         <v>57</v>
@@ -4258,7 +4258,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -4276,25 +4276,25 @@
         <v>79</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q25" t="s">
         <v>140</v>
       </c>
       <c r="R25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
       <c r="T25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X25" t="s">
         <v>57</v>
@@ -4345,10 +4345,10 @@
         <v>87</v>
       </c>
       <c r="AR25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
         <v>29</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M26" t="s">
         <v>28</v>
@@ -4374,22 +4374,22 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R26" t="s">
         <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X26" t="s">
         <v>57</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z26">
         <v>96</v>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -4450,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M27" t="s">
         <v>28</v>
@@ -4465,22 +4465,22 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R27" t="s">
         <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X27" t="s">
         <v>57</v>
       </c>
       <c r="Y27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z27">
         <v>96</v>
@@ -4529,7 +4529,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -4541,10 +4541,10 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M28" t="s">
         <v>28</v>
@@ -4556,22 +4556,22 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R28" t="s">
         <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X28" t="s">
         <v>57</v>
       </c>
       <c r="Y28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z28">
         <v>96</v>
@@ -4620,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -4632,10 +4632,10 @@
         <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M29" t="s">
         <v>28</v>
@@ -4647,22 +4647,22 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R29" t="s">
         <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s">
         <v>57</v>
       </c>
       <c r="Y29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z29">
         <v>96</v>
@@ -4705,13 +4705,13 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -4729,31 +4729,31 @@
         <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R30" t="s">
         <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X30" t="s">
         <v>57</v>
       </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z30">
         <v>169</v>
@@ -4795,7 +4795,7 @@
         <v>9</v>
       </c>
       <c r="AM30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN30">
         <v>1.29</v>
@@ -4807,21 +4807,21 @@
         <v>27</v>
       </c>
       <c r="AQ30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -4839,31 +4839,31 @@
         <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R31" t="s">
         <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X31" t="s">
         <v>57</v>
       </c>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z31">
         <v>169</v>
@@ -4905,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="AM31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN31">
         <v>1.29</v>
@@ -4917,21 +4917,21 @@
         <v>51</v>
       </c>
       <c r="AQ31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -4949,31 +4949,31 @@
         <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R32" t="s">
         <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X32" t="s">
         <v>57</v>
       </c>
       <c r="Y32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z32">
         <v>169</v>
@@ -5015,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="AM32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN32">
         <v>1.29</v>
@@ -5027,15 +5027,15 @@
         <v>17</v>
       </c>
       <c r="AQ32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -5044,7 +5044,7 @@
         <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s">
         <v>69</v>
@@ -5056,22 +5056,22 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R33" t="s">
         <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X33" t="s">
         <v>57</v>
       </c>
       <c r="Y33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AP33">
         <v>28</v>
@@ -5080,18 +5080,18 @@
         <v>97</v>
       </c>
       <c r="AR33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
@@ -5106,10 +5106,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s">
         <v>69</v>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R34" t="s">
         <v>22</v>
@@ -5130,16 +5130,16 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X34" t="s">
         <v>57</v>
       </c>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA34" t="s">
         <v>34</v>
@@ -5166,18 +5166,18 @@
         <v>97</v>
       </c>
       <c r="AR34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D35" t="s">
         <v>30</v>
@@ -5192,37 +5192,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s">
         <v>140</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q35" t="s">
         <v>140</v>
       </c>
       <c r="R35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s">
         <v>57</v>
       </c>
       <c r="Y35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA35" t="s">
         <v>34</v>
@@ -5249,12 +5249,12 @@
         <v>97</v>
       </c>
       <c r="AR35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -5263,7 +5263,7 @@
         <v>30</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s">
         <v>69</v>
@@ -5275,22 +5275,22 @@
         <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R36" t="s">
         <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X36" t="s">
         <v>57</v>
       </c>
       <c r="Y36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA36" t="s">
         <v>34</v>
@@ -5317,18 +5317,18 @@
         <v>97</v>
       </c>
       <c r="AR36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
@@ -5343,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s">
         <v>69</v>
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R37" t="s">
         <v>22</v>
@@ -5367,16 +5367,16 @@
         <v>2</v>
       </c>
       <c r="T37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X37" t="s">
         <v>57</v>
       </c>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s">
         <v>34</v>
@@ -5403,18 +5403,18 @@
         <v>97</v>
       </c>
       <c r="AR37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -5429,37 +5429,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
         <v>140</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q38" t="s">
         <v>140</v>
       </c>
       <c r="R38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S38">
         <v>2</v>
       </c>
       <c r="T38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X38" t="s">
         <v>57</v>
       </c>
       <c r="Y38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA38" t="s">
         <v>34</v>
@@ -5486,7 +5486,7 @@
         <v>97</v>
       </c>
       <c r="AR38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>30</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s">
         <v>69</v>
@@ -5512,16 +5512,16 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R39" t="s">
         <v>53</v>
       </c>
       <c r="T39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X39" t="s">
         <v>50</v>
@@ -5575,7 +5575,7 @@
         <v>23.24</v>
       </c>
       <c r="AQ39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR39" t="s">
         <v>156</v>
@@ -5589,7 +5589,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s">
         <v>69</v>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R40" t="s">
         <v>22</v>
@@ -5628,10 +5628,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X40" t="s">
         <v>50</v>
@@ -5685,7 +5685,7 @@
         <v>25.69</v>
       </c>
       <c r="AQ40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR40" t="s">
         <v>157</v>
@@ -5702,7 +5702,7 @@
         <v>30</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s">
         <v>130</v>
@@ -5714,16 +5714,16 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R41" t="s">
         <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X41" t="s">
         <v>50</v>
@@ -5777,7 +5777,7 @@
         <v>19.57</v>
       </c>
       <c r="AQ41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR41" t="s">
         <v>158</v>
@@ -5791,7 +5791,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s">
         <v>130</v>
@@ -5821,22 +5821,22 @@
         <v>2</v>
       </c>
       <c r="P42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q42" t="s">
         <v>140</v>
       </c>
       <c r="R42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X42" t="s">
         <v>50</v>
@@ -5890,7 +5890,7 @@
         <v>23.58</v>
       </c>
       <c r="AQ42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR42" t="s">
         <v>159</v>
@@ -5907,7 +5907,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s">
         <v>130</v>
@@ -5919,16 +5919,16 @@
         <v>3</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R43" t="s">
         <v>53</v>
       </c>
       <c r="T43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X43" t="s">
         <v>50</v>
@@ -5982,7 +5982,7 @@
         <v>17.55</v>
       </c>
       <c r="AQ43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR43" t="s">
         <v>160</v>
@@ -5996,7 +5996,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -6011,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s">
         <v>130</v>
@@ -6026,22 +6026,22 @@
         <v>3</v>
       </c>
       <c r="P44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q44" t="s">
         <v>140</v>
       </c>
       <c r="R44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X44" t="s">
         <v>50</v>
@@ -6095,7 +6095,7 @@
         <v>19.22</v>
       </c>
       <c r="AQ44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR44" t="s">
         <v>161</v>
@@ -6112,7 +6112,7 @@
         <v>30</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s">
         <v>130</v>
@@ -6124,16 +6124,16 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R45" t="s">
         <v>53</v>
       </c>
       <c r="T45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X45" t="s">
         <v>50</v>
@@ -6187,7 +6187,7 @@
         <v>4.32</v>
       </c>
       <c r="AQ45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR45" t="s">
         <v>162</v>
@@ -6201,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s">
         <v>130</v>
@@ -6231,22 +6231,22 @@
         <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q46" t="s">
         <v>140</v>
       </c>
       <c r="R46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X46" t="s">
         <v>50</v>
@@ -6300,7 +6300,7 @@
         <v>14.03</v>
       </c>
       <c r="AQ46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AR46" t="s">
         <v>163</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47">
         <v>15</v>
@@ -6320,7 +6320,7 @@
         <v>164</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s">
         <v>28</v>
@@ -6332,16 +6332,16 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R47" t="s">
         <v>53</v>
       </c>
       <c r="T47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X47" t="s">
         <v>57</v>
@@ -6393,7 +6393,7 @@
         <v>14.29</v>
       </c>
       <c r="AQ47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AR47" t="s">
         <v>166</v>
@@ -6401,13 +6401,13 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B48">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -6422,7 +6422,7 @@
         <v>164</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M48" t="s">
         <v>28</v>
@@ -6434,16 +6434,16 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R48" t="s">
         <v>53</v>
       </c>
       <c r="T48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X48" t="s">
         <v>57</v>
@@ -6495,7 +6495,7 @@
         <v>17.438461538461539</v>
       </c>
       <c r="AQ48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AR48" t="s">
         <v>167</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B49">
         <v>15</v>
@@ -6515,7 +6515,7 @@
         <v>164</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s">
         <v>28</v>
@@ -6527,16 +6527,16 @@
         <v>2</v>
       </c>
       <c r="P49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R49" t="s">
         <v>53</v>
       </c>
       <c r="T49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X49" t="s">
         <v>57</v>
@@ -6588,7 +6588,7 @@
         <v>20.139999999999997</v>
       </c>
       <c r="AQ49" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AR49" t="s">
         <v>168</v>
@@ -6596,13 +6596,13 @@
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -6617,7 +6617,7 @@
         <v>164</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M50" t="s">
         <v>28</v>
@@ -6629,16 +6629,16 @@
         <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R50" t="s">
         <v>53</v>
       </c>
       <c r="T50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X50" t="s">
         <v>57</v>
@@ -6690,7 +6690,7 @@
         <v>22.907692307692308</v>
       </c>
       <c r="AQ50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AR50" t="s">
         <v>169</v>
@@ -6707,7 +6707,7 @@
         <v>29</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s">
         <v>28</v>
@@ -6719,22 +6719,22 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R51" t="s">
         <v>53</v>
       </c>
       <c r="T51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X51" t="s">
         <v>57</v>
       </c>
       <c r="Y51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z51">
         <v>96</v>
@@ -6780,7 +6780,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
@@ -6792,10 +6792,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M52" t="s">
         <v>28</v>
@@ -6807,22 +6807,22 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R52" t="s">
         <v>53</v>
       </c>
       <c r="T52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X52" t="s">
         <v>57</v>
       </c>
       <c r="Y52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z52">
         <v>96</v>
@@ -6868,7 +6868,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
@@ -6880,10 +6880,10 @@
         <v>91</v>
       </c>
       <c r="J53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M53" t="s">
         <v>28</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R53" t="s">
         <v>53</v>
       </c>
       <c r="T53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X53" t="s">
         <v>57</v>
       </c>
       <c r="Y53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z53">
         <v>96</v>
@@ -6942,7 +6942,7 @@
         <v>29</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M54" t="s">
         <v>51</v>
@@ -6954,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R54" t="s">
         <v>53</v>
       </c>
       <c r="T54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X54" t="s">
         <v>50</v>
@@ -7017,7 +7017,7 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -7029,7 +7029,7 @@
         <v>49</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s">
         <v>51</v>
@@ -7041,13 +7041,13 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R55" t="s">
         <v>53</v>
       </c>
       <c r="T55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U55" t="s">
         <v>55</v>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X55" t="s">
         <v>50</v>
@@ -7113,7 +7113,7 @@
         <v>29</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M56" t="s">
         <v>51</v>
@@ -7125,16 +7125,16 @@
         <v>2</v>
       </c>
       <c r="P56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R56" t="s">
         <v>53</v>
       </c>
       <c r="T56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X56" t="s">
         <v>50</v>
@@ -7188,7 +7188,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -7200,7 +7200,7 @@
         <v>49</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
@@ -7212,13 +7212,13 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R57" t="s">
         <v>53</v>
       </c>
       <c r="T57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U57" t="s">
         <v>54</v>
@@ -7227,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="W57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X57" t="s">
         <v>50</v>
@@ -7284,7 +7284,7 @@
         <v>29</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M58" t="s">
         <v>51</v>
@@ -7296,16 +7296,16 @@
         <v>3</v>
       </c>
       <c r="P58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R58" t="s">
         <v>53</v>
       </c>
       <c r="T58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X58" t="s">
         <v>57</v>
@@ -7355,7 +7355,7 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -7367,7 +7367,7 @@
         <v>49</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M59" t="s">
         <v>51</v>
@@ -7379,13 +7379,13 @@
         <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R59" t="s">
         <v>53</v>
       </c>
       <c r="T59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U59" t="s">
         <v>55</v>
@@ -7394,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="W59" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X59" t="s">
         <v>57</v>
@@ -7447,7 +7447,7 @@
         <v>29</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M60" t="s">
         <v>51</v>
@@ -7459,16 +7459,16 @@
         <v>4</v>
       </c>
       <c r="P60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R60" t="s">
         <v>53</v>
       </c>
       <c r="T60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X60" t="s">
         <v>57</v>
@@ -7518,7 +7518,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
@@ -7530,7 +7530,7 @@
         <v>49</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M61" t="s">
         <v>51</v>
@@ -7542,13 +7542,13 @@
         <v>4</v>
       </c>
       <c r="P61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R61" t="s">
         <v>53</v>
       </c>
       <c r="T61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U61" t="s">
         <v>54</v>
@@ -7557,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="W61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X61" t="s">
         <v>57</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -7610,7 +7610,7 @@
         <v>30</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M62" t="s">
         <v>69</v>
@@ -7622,16 +7622,16 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R62" t="s">
         <v>53</v>
       </c>
       <c r="T62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W62" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X62" t="s">
         <v>57</v>
@@ -7683,18 +7683,18 @@
         <v>110</v>
       </c>
       <c r="AR62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
@@ -7709,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M63" t="s">
         <v>69</v>
@@ -7724,16 +7724,16 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R63" t="s">
         <v>53</v>
       </c>
       <c r="T63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X63" t="s">
         <v>57</v>
@@ -7785,7 +7785,7 @@
         <v>110</v>
       </c>
       <c r="AR63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.25">
@@ -7799,7 +7799,7 @@
         <v>29</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M64" t="s">
         <v>28</v>
@@ -7811,16 +7811,16 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R64" t="s">
         <v>53</v>
       </c>
       <c r="T64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X64" t="s">
         <v>57</v>
@@ -7891,7 +7891,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -7912,7 +7912,7 @@
         <v>31</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M65" t="s">
         <v>28</v>
@@ -7924,16 +7924,16 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R65" t="s">
         <v>53</v>
       </c>
       <c r="T65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X65" t="s">
         <v>57</v>
@@ -8007,7 +8007,7 @@
         <v>29</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M66" t="s">
         <v>28</v>
@@ -8019,16 +8019,16 @@
         <v>2</v>
       </c>
       <c r="P66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R66" t="s">
         <v>53</v>
       </c>
       <c r="T66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X66" t="s">
         <v>57</v>
@@ -8096,7 +8096,7 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -8117,7 +8117,7 @@
         <v>31</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M67" t="s">
         <v>28</v>
@@ -8129,16 +8129,16 @@
         <v>2</v>
       </c>
       <c r="P67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R67" t="s">
         <v>53</v>
       </c>
       <c r="T67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X67" t="s">
         <v>57</v>
@@ -8200,13 +8200,13 @@
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B68">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K68" t="s">
         <v>140</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R68" t="s">
         <v>22</v>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U68" t="s">
         <v>106</v>
@@ -8242,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X68" t="s">
         <v>57</v>
@@ -8296,21 +8296,21 @@
         <v>54</v>
       </c>
       <c r="AQ68" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B69">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -8319,31 +8319,31 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K69" t="s">
         <v>140</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W69" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X69" t="s">
         <v>57</v>
@@ -8397,21 +8397,21 @@
         <v>45</v>
       </c>
       <c r="AQ69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR69" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B70">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -8420,22 +8420,22 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K70" t="s">
         <v>140</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R70" t="s">
         <v>53</v>
       </c>
       <c r="T70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U70" t="s">
         <v>115</v>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="W70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X70" t="s">
         <v>57</v>
@@ -8498,21 +8498,21 @@
         <v>44</v>
       </c>
       <c r="AQ70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D71" t="s">
         <v>29</v>
@@ -8521,16 +8521,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K71" t="s">
         <v>140</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R71" t="s">
         <v>22</v>
@@ -8539,7 +8539,7 @@
         <v>2</v>
       </c>
       <c r="T71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U71" t="s">
         <v>106</v>
@@ -8548,7 +8548,7 @@
         <v>2</v>
       </c>
       <c r="W71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X71" t="s">
         <v>57</v>
@@ -8587,7 +8587,7 @@
         <v>3.6</v>
       </c>
       <c r="AK71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM71" t="s">
         <v>45</v>
@@ -8602,21 +8602,21 @@
         <v>45</v>
       </c>
       <c r="AQ71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B72">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D72" t="s">
         <v>29</v>
@@ -8625,31 +8625,31 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K72" t="s">
         <v>140</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S72">
         <v>2</v>
       </c>
       <c r="T72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X72" t="s">
         <v>57</v>
@@ -8688,7 +8688,7 @@
         <v>3.6</v>
       </c>
       <c r="AK72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM72" t="s">
         <v>45</v>
@@ -8703,21 +8703,21 @@
         <v>42</v>
       </c>
       <c r="AQ72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B73">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -8726,22 +8726,22 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K73" t="s">
         <v>140</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R73" t="s">
         <v>53</v>
       </c>
       <c r="T73" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U73" t="s">
         <v>115</v>
@@ -8750,7 +8750,7 @@
         <v>2</v>
       </c>
       <c r="W73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X73" t="s">
         <v>57</v>
@@ -8789,7 +8789,7 @@
         <v>3.6</v>
       </c>
       <c r="AK73" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM73" t="s">
         <v>45</v>
@@ -8804,21 +8804,21 @@
         <v>27</v>
       </c>
       <c r="AQ73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B74">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -8827,16 +8827,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K74" t="s">
         <v>140</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P74" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R74" t="s">
         <v>22</v>
@@ -8845,7 +8845,7 @@
         <v>3</v>
       </c>
       <c r="T74" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U74" t="s">
         <v>106</v>
@@ -8854,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="W74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X74" t="s">
         <v>57</v>
@@ -8893,7 +8893,7 @@
         <v>3.6</v>
       </c>
       <c r="AK74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM74" t="s">
         <v>45</v>
@@ -8908,21 +8908,21 @@
         <v>25</v>
       </c>
       <c r="AQ74" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B75">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -8931,31 +8931,31 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K75" t="s">
         <v>140</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S75">
         <v>3</v>
       </c>
       <c r="T75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W75" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X75" t="s">
         <v>57</v>
@@ -8994,7 +8994,7 @@
         <v>3.6</v>
       </c>
       <c r="AK75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM75" t="s">
         <v>45</v>
@@ -9009,21 +9009,21 @@
         <v>21</v>
       </c>
       <c r="AQ75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B76">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
@@ -9032,22 +9032,22 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K76" t="s">
         <v>140</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R76" t="s">
         <v>53</v>
       </c>
       <c r="T76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U76" t="s">
         <v>115</v>
@@ -9056,7 +9056,7 @@
         <v>3</v>
       </c>
       <c r="W76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X76" t="s">
         <v>57</v>
@@ -9095,7 +9095,7 @@
         <v>3.6</v>
       </c>
       <c r="AK76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM76" t="s">
         <v>45</v>
@@ -9110,21 +9110,21 @@
         <v>10</v>
       </c>
       <c r="AQ76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR76" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
@@ -9133,7 +9133,7 @@
         <v>62.5</v>
       </c>
       <c r="F77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G77">
         <v>12.5</v>
@@ -9142,16 +9142,16 @@
         <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R77" t="s">
         <v>22</v>
@@ -9160,10 +9160,10 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X77" t="s">
         <v>57</v>
@@ -9202,7 +9202,7 @@
         <v>3.12</v>
       </c>
       <c r="AK77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL77">
         <v>9</v>
@@ -9220,21 +9220,21 @@
         <v>51.21</v>
       </c>
       <c r="AQ77" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B78">
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -9243,7 +9243,7 @@
         <v>62.5</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G78">
         <v>12.5</v>
@@ -9252,34 +9252,34 @@
         <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K78" t="s">
         <v>140</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q78" t="s">
         <v>140</v>
       </c>
       <c r="R78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S78">
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W78" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X78" t="s">
         <v>57</v>
@@ -9318,7 +9318,7 @@
         <v>2.64</v>
       </c>
       <c r="AK78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL78">
         <v>9</v>
@@ -9336,21 +9336,21 @@
         <v>17.93</v>
       </c>
       <c r="AQ78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B79">
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
@@ -9359,7 +9359,7 @@
         <v>62.5</v>
       </c>
       <c r="F79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G79">
         <v>12.5</v>
@@ -9368,34 +9368,34 @@
         <v>25</v>
       </c>
       <c r="I79" t="s">
+        <v>194</v>
+      </c>
+      <c r="J79" t="s">
+        <v>252</v>
+      </c>
+      <c r="K79" t="s">
         <v>195</v>
       </c>
-      <c r="J79" t="s">
-        <v>254</v>
-      </c>
-      <c r="K79" t="s">
-        <v>196</v>
-      </c>
       <c r="L79" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="R79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W79" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X79" t="s">
         <v>57</v>
@@ -9434,7 +9434,7 @@
         <v>2.09</v>
       </c>
       <c r="AK79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL79">
         <v>9</v>
@@ -9452,21 +9452,21 @@
         <v>13.19</v>
       </c>
       <c r="AQ79" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B80">
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
@@ -9475,7 +9475,7 @@
         <v>62.5</v>
       </c>
       <c r="F80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G80">
         <v>12.5</v>
@@ -9484,16 +9484,16 @@
         <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R80" t="s">
         <v>22</v>
@@ -9502,10 +9502,10 @@
         <v>2</v>
       </c>
       <c r="T80" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W80" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X80" t="s">
         <v>57</v>
@@ -9544,7 +9544,7 @@
         <v>3.16</v>
       </c>
       <c r="AK80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL80">
         <v>9</v>
@@ -9562,21 +9562,21 @@
         <v>44.76</v>
       </c>
       <c r="AQ80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B81">
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D81" t="s">
         <v>29</v>
@@ -9585,7 +9585,7 @@
         <v>62.5</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G81">
         <v>12.5</v>
@@ -9594,34 +9594,34 @@
         <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K81" t="s">
         <v>140</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q81" t="s">
         <v>140</v>
       </c>
       <c r="R81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S81">
         <v>2</v>
       </c>
       <c r="T81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X81" t="s">
         <v>57</v>
@@ -9660,7 +9660,7 @@
         <v>2.79</v>
       </c>
       <c r="AK81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL81">
         <v>9</v>
@@ -9678,21 +9678,21 @@
         <v>11.53</v>
       </c>
       <c r="AQ81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B82">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D82" t="s">
         <v>29</v>
@@ -9701,7 +9701,7 @@
         <v>62.5</v>
       </c>
       <c r="F82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G82">
         <v>12.5</v>
@@ -9710,34 +9710,34 @@
         <v>25</v>
       </c>
       <c r="I82" t="s">
+        <v>194</v>
+      </c>
+      <c r="J82" t="s">
+        <v>252</v>
+      </c>
+      <c r="K82" t="s">
         <v>195</v>
       </c>
-      <c r="J82" t="s">
-        <v>254</v>
-      </c>
-      <c r="K82" t="s">
-        <v>196</v>
-      </c>
       <c r="L82" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="R82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S82">
         <v>2</v>
       </c>
       <c r="T82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X82" t="s">
         <v>57</v>
@@ -9776,7 +9776,7 @@
         <v>2.17</v>
       </c>
       <c r="AK82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL82">
         <v>9</v>
@@ -9794,21 +9794,21 @@
         <v>5</v>
       </c>
       <c r="AQ82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B83">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -9823,22 +9823,22 @@
         <v>50</v>
       </c>
       <c r="I83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P83" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R83" t="s">
         <v>53</v>
       </c>
       <c r="T83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U83" t="s">
         <v>55</v>
@@ -9847,13 +9847,13 @@
         <v>1</v>
       </c>
       <c r="W83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X83" t="s">
         <v>57</v>
       </c>
       <c r="Y83" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA83" t="s">
         <v>55</v>
@@ -9884,21 +9884,21 @@
         <v>30.4</v>
       </c>
       <c r="AQ83" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AR83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B84">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
@@ -9913,40 +9913,40 @@
         <v>50</v>
       </c>
       <c r="I84" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J84" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R84" t="s">
         <v>53</v>
       </c>
       <c r="T84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V84">
         <v>1</v>
       </c>
       <c r="W84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X84" t="s">
         <v>57</v>
       </c>
       <c r="Y84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB84" s="22">
         <f>130/AJ84</f>
@@ -9974,21 +9974,21 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AQ84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AR84" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B85">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D85" t="s">
         <v>29</v>
@@ -10003,16 +10003,16 @@
         <v>50</v>
       </c>
       <c r="I85" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R85" t="s">
         <v>22</v>
@@ -10021,19 +10021,19 @@
         <v>1</v>
       </c>
       <c r="T85" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X85" t="s">
         <v>57</v>
       </c>
       <c r="Y85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB85" s="22">
         <f>200/AJ85</f>
@@ -10055,27 +10055,27 @@
         <v>11</v>
       </c>
       <c r="AM85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AP85">
         <v>1.6</v>
       </c>
       <c r="AQ85" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR85" t="s">
         <v>241</v>
-      </c>
-      <c r="AR85" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B86">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
@@ -10090,43 +10090,43 @@
         <v>50</v>
       </c>
       <c r="I86" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q86" t="s">
         <v>140</v>
       </c>
       <c r="R86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S86">
         <v>1</v>
       </c>
       <c r="T86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X86" t="s">
         <v>57</v>
       </c>
       <c r="Y86" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA86" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB86" s="22">
         <f>200/AJ86</f>
@@ -10148,27 +10148,27 @@
         <v>11</v>
       </c>
       <c r="AM86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AP86">
         <v>4.5</v>
       </c>
       <c r="AQ86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AR86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B87">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
@@ -10183,25 +10183,25 @@
         <v>50</v>
       </c>
       <c r="I87" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J87" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R87" t="s">
         <v>53</v>
       </c>
       <c r="T87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U87" t="s">
         <v>55</v>
@@ -10210,13 +10210,13 @@
         <v>2</v>
       </c>
       <c r="W87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X87" t="s">
         <v>57</v>
       </c>
       <c r="Y87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA87" t="s">
         <v>55</v>
@@ -10241,27 +10241,27 @@
         <v>6.2</v>
       </c>
       <c r="AM87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AP87">
         <v>46.3</v>
       </c>
       <c r="AQ87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AR87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B88">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
@@ -10276,43 +10276,43 @@
         <v>50</v>
       </c>
       <c r="I88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R88" t="s">
         <v>53</v>
       </c>
       <c r="T88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V88">
         <v>2</v>
       </c>
       <c r="W88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X88" t="s">
         <v>57</v>
       </c>
       <c r="Y88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB88" s="24">
         <f>180/AJ88</f>
@@ -10334,16 +10334,16 @@
         <v>6.2</v>
       </c>
       <c r="AM88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AP88">
         <v>10.6</v>
       </c>
       <c r="AQ88" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AR88" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -10357,7 +10357,7 @@
         <v>29</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M89" t="s">
         <v>28</v>
@@ -10369,16 +10369,16 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R89" t="s">
         <v>53</v>
       </c>
       <c r="T89" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W89" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X89" t="s">
         <v>57</v>
@@ -10446,10 +10446,10 @@
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E90">
         <v>80</v>
@@ -10464,10 +10464,10 @@
         <v>116</v>
       </c>
       <c r="J90" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M90" t="s">
         <v>28</v>
@@ -10479,16 +10479,16 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R90" t="s">
         <v>53</v>
       </c>
       <c r="T90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>57</v>
@@ -10559,7 +10559,7 @@
         <v>29</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M91" t="s">
         <v>28</v>
@@ -10571,16 +10571,16 @@
         <v>2</v>
       </c>
       <c r="P91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R91" t="s">
         <v>53</v>
       </c>
       <c r="T91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X91" t="s">
         <v>57</v>
@@ -10648,10 +10648,10 @@
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D92" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E92">
         <v>80</v>
@@ -10666,10 +10666,10 @@
         <v>116</v>
       </c>
       <c r="J92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M92" t="s">
         <v>28</v>
@@ -10681,16 +10681,16 @@
         <v>2</v>
       </c>
       <c r="P92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R92" t="s">
         <v>53</v>
       </c>
       <c r="T92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X92" t="s">
         <v>57</v>
@@ -10761,7 +10761,7 @@
         <v>29</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M93" t="s">
         <v>28</v>
@@ -10773,16 +10773,16 @@
         <v>3</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R93" t="s">
         <v>53</v>
       </c>
       <c r="T93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X93" t="s">
         <v>57</v>
@@ -10850,10 +10850,10 @@
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E94">
         <v>80</v>
@@ -10868,10 +10868,10 @@
         <v>116</v>
       </c>
       <c r="J94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M94" t="s">
         <v>28</v>
@@ -10883,16 +10883,16 @@
         <v>3</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R94" t="s">
         <v>53</v>
       </c>
       <c r="T94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X94" t="s">
         <v>57</v>
@@ -10963,7 +10963,7 @@
         <v>29</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M95" t="s">
         <v>28</v>
@@ -10975,16 +10975,16 @@
         <v>4</v>
       </c>
       <c r="P95" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R95" t="s">
         <v>53</v>
       </c>
       <c r="T95" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W95" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X95" t="s">
         <v>57</v>
@@ -11052,10 +11052,10 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E96">
         <v>80</v>
@@ -11070,10 +11070,10 @@
         <v>116</v>
       </c>
       <c r="J96" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M96" t="s">
         <v>28</v>
@@ -11085,16 +11085,16 @@
         <v>4</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R96" t="s">
         <v>53</v>
       </c>
       <c r="T96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X96" t="s">
         <v>57</v>
@@ -11165,7 +11165,7 @@
         <v>30</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M97" t="s">
         <v>69</v>
@@ -11177,16 +11177,16 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R97" t="s">
         <v>53</v>
       </c>
       <c r="T97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X97" t="s">
         <v>50</v>
@@ -11254,7 +11254,7 @@
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
@@ -11272,10 +11272,10 @@
         <v>143</v>
       </c>
       <c r="J98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M98" t="s">
         <v>69</v>
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R98" t="s">
         <v>22</v>
@@ -11296,10 +11296,10 @@
         <v>1</v>
       </c>
       <c r="T98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X98" t="s">
         <v>50</v>
@@ -11367,7 +11367,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D99" t="s">
         <v>30</v>
@@ -11385,28 +11385,28 @@
         <v>143</v>
       </c>
       <c r="J99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q99" t="s">
         <v>140</v>
       </c>
       <c r="R99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
       <c r="T99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X99" t="s">
         <v>50</v>
@@ -11477,7 +11477,7 @@
         <v>30</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M100" t="s">
         <v>69</v>
@@ -11489,16 +11489,16 @@
         <v>2</v>
       </c>
       <c r="P100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R100" t="s">
         <v>53</v>
       </c>
       <c r="T100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X100" t="s">
         <v>50</v>
@@ -11566,7 +11566,7 @@
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D101" t="s">
         <v>30</v>
@@ -11584,10 +11584,10 @@
         <v>143</v>
       </c>
       <c r="J101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M101" t="s">
         <v>69</v>
@@ -11599,7 +11599,7 @@
         <v>2</v>
       </c>
       <c r="P101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R101" t="s">
         <v>22</v>
@@ -11608,10 +11608,10 @@
         <v>2</v>
       </c>
       <c r="T101" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W101" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X101" t="s">
         <v>50</v>
@@ -11679,7 +11679,7 @@
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D102" t="s">
         <v>30</v>
@@ -11697,28 +11697,28 @@
         <v>143</v>
       </c>
       <c r="J102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L102" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P102" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q102" t="s">
         <v>140</v>
       </c>
       <c r="R102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S102">
         <v>2</v>
       </c>
       <c r="T102" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W102" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X102" t="s">
         <v>50</v>
@@ -11789,7 +11789,7 @@
         <v>29</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M103" t="s">
         <v>28</v>
@@ -11801,16 +11801,16 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R103" t="s">
         <v>53</v>
       </c>
       <c r="T103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X103" t="s">
         <v>57</v>
@@ -11855,7 +11855,7 @@
         <v>40</v>
       </c>
       <c r="AQ103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR103" t="s">
         <v>148</v>
@@ -11869,13 +11869,13 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M104" t="s">
         <v>28</v>
@@ -11887,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R104" t="s">
         <v>22</v>
@@ -11896,10 +11896,10 @@
         <v>1</v>
       </c>
       <c r="T104" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W104" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X104" t="s">
         <v>57</v>
@@ -11945,7 +11945,7 @@
         <v>37</v>
       </c>
       <c r="AQ104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR104" t="s">
         <v>149</v>
@@ -11959,32 +11959,32 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="L105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O105" s="15"/>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q105" t="s">
         <v>140</v>
       </c>
       <c r="R105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S105">
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X105" t="s">
         <v>57</v>
@@ -12029,7 +12029,7 @@
         <v>19</v>
       </c>
       <c r="AQ105" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR105" t="s">
         <v>153</v>
@@ -12043,32 +12043,32 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O106" s="15"/>
       <c r="P106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S106">
         <v>1</v>
       </c>
       <c r="T106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X106" t="s">
         <v>57</v>
@@ -12113,10 +12113,10 @@
         <v>16</v>
       </c>
       <c r="AQ106" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -12127,32 +12127,32 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O107" s="15"/>
       <c r="P107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S107">
         <v>1</v>
       </c>
       <c r="T107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X107" t="s">
         <v>57</v>
@@ -12197,10 +12197,10 @@
         <v>8</v>
       </c>
       <c r="AQ107" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -12211,13 +12211,13 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M108" t="s">
         <v>28</v>
@@ -12229,16 +12229,16 @@
         <v>2</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R108" t="s">
         <v>53</v>
       </c>
       <c r="T108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X108" t="s">
         <v>57</v>
@@ -12283,7 +12283,7 @@
         <v>14</v>
       </c>
       <c r="AQ108" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR108" t="s">
         <v>150</v>
@@ -12297,13 +12297,13 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M109" t="s">
         <v>28</v>
@@ -12315,7 +12315,7 @@
         <v>2</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R109" t="s">
         <v>22</v>
@@ -12324,10 +12324,10 @@
         <v>2</v>
       </c>
       <c r="T109" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W109" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X109" t="s">
         <v>57</v>
@@ -12373,7 +12373,7 @@
         <v>9</v>
       </c>
       <c r="AQ109" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR109" t="s">
         <v>151</v>
@@ -12387,32 +12387,32 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
       </c>
       <c r="L110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O110" s="15"/>
       <c r="P110" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q110" t="s">
         <v>140</v>
       </c>
       <c r="R110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S110">
         <v>2</v>
       </c>
       <c r="T110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X110" t="s">
         <v>57</v>
@@ -12457,7 +12457,7 @@
         <v>4</v>
       </c>
       <c r="AQ110" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR110" t="s">
         <v>152</v>
@@ -12471,32 +12471,32 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O111" s="15"/>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S111">
         <v>2</v>
       </c>
       <c r="T111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X111" t="s">
         <v>57</v>
@@ -12541,10 +12541,10 @@
         <v>5</v>
       </c>
       <c r="AQ111" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -12555,32 +12555,32 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
         <v>29</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O112" s="15"/>
       <c r="P112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S112">
         <v>2</v>
       </c>
       <c r="T112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X112" t="s">
         <v>57</v>
@@ -12625,10 +12625,10 @@
         <v>2</v>
       </c>
       <c r="AQ112" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AR112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -12642,7 +12642,7 @@
         <v>29</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M113" t="s">
         <v>28</v>
@@ -12654,22 +12654,22 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R113" t="s">
         <v>53</v>
       </c>
       <c r="T113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X113" t="s">
         <v>57</v>
       </c>
       <c r="Y113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z113">
         <v>96</v>
@@ -12725,7 +12725,7 @@
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" t="s">
         <v>29</v>
@@ -12743,10 +12743,10 @@
         <v>114</v>
       </c>
       <c r="J114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M114" t="s">
         <v>28</v>
@@ -12758,13 +12758,13 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R114" t="s">
         <v>53</v>
       </c>
       <c r="T114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U114" t="s">
         <v>34</v>
@@ -12773,13 +12773,13 @@
         <v>1</v>
       </c>
       <c r="W114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X114" t="s">
         <v>57</v>
       </c>
       <c r="Y114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z114">
         <v>96</v>
@@ -12835,7 +12835,7 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
@@ -12853,19 +12853,19 @@
         <v>114</v>
       </c>
       <c r="J115" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R115" t="s">
         <v>53</v>
       </c>
       <c r="T115" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U115" t="s">
         <v>55</v>
@@ -12874,13 +12874,13 @@
         <v>1</v>
       </c>
       <c r="W115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X115" t="s">
         <v>57</v>
       </c>
       <c r="Y115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z115">
         <v>96</v>
@@ -12925,7 +12925,7 @@
         <v>42</v>
       </c>
       <c r="AR115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
@@ -12954,19 +12954,19 @@
         <v>114</v>
       </c>
       <c r="J116" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R116" t="s">
         <v>53</v>
       </c>
       <c r="T116" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U116" t="s">
         <v>106</v>
@@ -12975,13 +12975,13 @@
         <v>1</v>
       </c>
       <c r="W116" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X116" t="s">
         <v>57</v>
       </c>
       <c r="Y116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z116">
         <v>96</v>
@@ -13026,7 +13026,7 @@
         <v>42</v>
       </c>
       <c r="AR116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
         <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D117" t="s">
         <v>29</v>
@@ -13055,40 +13055,40 @@
         <v>114</v>
       </c>
       <c r="J117" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R117" t="s">
         <v>53</v>
       </c>
       <c r="T117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V117">
         <v>1</v>
       </c>
       <c r="W117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X117" t="s">
         <v>57</v>
       </c>
       <c r="Y117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z117">
         <v>96</v>
       </c>
       <c r="AA117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB117">
         <v>30</v>
@@ -13127,7 +13127,7 @@
         <v>42</v>
       </c>
       <c r="AR117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
         <v>29</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M118" t="s">
         <v>28</v>
@@ -13153,25 +13153,25 @@
         <v>2</v>
       </c>
       <c r="P118" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R118" t="s">
         <v>53</v>
       </c>
       <c r="T118" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U118" t="s">
         <v>34</v>
       </c>
       <c r="W118" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X118" t="s">
         <v>57</v>
       </c>
       <c r="Y118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z118">
         <v>96</v>
@@ -13227,7 +13227,7 @@
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" t="s">
         <v>29</v>
@@ -13245,10 +13245,10 @@
         <v>114</v>
       </c>
       <c r="J119" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L119" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M119" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>2</v>
       </c>
       <c r="P119" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R119" t="s">
         <v>53</v>
       </c>
       <c r="T119" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U119" t="s">
         <v>34</v>
@@ -13275,13 +13275,13 @@
         <v>2</v>
       </c>
       <c r="W119" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X119" t="s">
         <v>57</v>
       </c>
       <c r="Y119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z119">
         <v>96</v>
@@ -13337,7 +13337,7 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D120" t="s">
         <v>29</v>
@@ -13355,19 +13355,19 @@
         <v>114</v>
       </c>
       <c r="J120" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R120" t="s">
         <v>53</v>
       </c>
       <c r="T120" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U120" t="s">
         <v>55</v>
@@ -13376,13 +13376,13 @@
         <v>2</v>
       </c>
       <c r="W120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X120" t="s">
         <v>57</v>
       </c>
       <c r="Y120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z120">
         <v>96</v>
@@ -13427,7 +13427,7 @@
         <v>42</v>
       </c>
       <c r="AR120" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -13438,7 +13438,7 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
@@ -13456,40 +13456,40 @@
         <v>114</v>
       </c>
       <c r="J121" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L121" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P121" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R121" t="s">
         <v>53</v>
       </c>
       <c r="T121" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U121" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V121">
         <v>2</v>
       </c>
       <c r="W121" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X121" t="s">
         <v>57</v>
       </c>
       <c r="Y121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z121">
         <v>96</v>
       </c>
       <c r="AA121" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AB121">
         <v>30</v>
@@ -13528,7 +13528,7 @@
         <v>42</v>
       </c>
       <c r="AR121" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -13539,7 +13539,7 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
@@ -13557,40 +13557,40 @@
         <v>114</v>
       </c>
       <c r="J122" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L122" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P122" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R122" t="s">
         <v>53</v>
       </c>
       <c r="T122" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U122" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V122">
         <v>2</v>
       </c>
       <c r="W122" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="X122" t="s">
         <v>57</v>
       </c>
       <c r="Y122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z122">
         <v>96</v>
       </c>
       <c r="AA122" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AB122">
         <v>30</v>
@@ -13629,7 +13629,7 @@
         <v>42</v>
       </c>
       <c r="AR122" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
